--- a/examples/administrator_db.xlsx
+++ b/examples/administrator_db.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vlad/PycharmProjects/report-generator/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0219ED5-8716-4948-9032-5C23D055B90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A17A8-B752-CD45-A3CD-84A24012AD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
+    <sheet name="2023" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="10">
   <si>
     <t>Дата</t>
   </si>
@@ -31,16 +32,25 @@
     <t>Время</t>
   </si>
   <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Мельничук Валерия Владимировна</t>
+  </si>
+  <si>
     <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Хрипунова Инна Сергеевна</t>
   </si>
   <si>
     <t>450.1</t>
   </si>
   <si>
-    <t>Иванов Иван Иванович</t>
+    <t>Петрв Петр Петрович</t>
   </si>
   <si>
-    <t>Петров Петр Петрович</t>
+    <t>Иванов Иван Иванович</t>
   </si>
 </sst>
 </file>
@@ -310,11 +320,5247 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C1001"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>45293</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>45294</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>45295</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>45296</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>45297</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>45298</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>45299</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>45300</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>45301</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>45302</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>45303</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>45304</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>45305</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>45306</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>45307</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>45308</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>45309</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>45310</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>45311</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>45312</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>45313</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>45315</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>45316</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>45317</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>45318</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>45319</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>45320</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>45321</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>45323</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>45324</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>45325</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>45326</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>45327</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>45328</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>45329</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>45330</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>45331</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>45332</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>45333</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>45334</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
+        <v>45335</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>45336</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>45337</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>45338</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>45339</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>45340</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>45341</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>45342</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>45343</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>45344</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>45345</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>45346</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>45347</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>45348</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>45349</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>45350</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>45351</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>45352</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>45353</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>45354</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
+        <v>45355</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
+        <v>45356</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
+        <v>45357</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
+        <v>45358</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
+        <v>45359</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
+        <v>45360</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
+        <v>45361</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
+        <v>45362</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
+        <v>45363</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
+        <v>45364</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
+        <v>45365</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>45366</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
+        <v>45367</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
+        <v>45368</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <v>45369</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>45370</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
+        <v>45371</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82" s="3">
+        <v>45372</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83" s="3">
+        <v>45373</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" s="3">
+        <v>45374</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85" s="3">
+        <v>45375</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="3">
+        <v>45376</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87" s="3">
+        <v>45377</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>45378</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
+        <v>45379</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="3">
+        <v>45380</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
+        <v>45381</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92" s="3">
+        <v>45382</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" s="3">
+        <v>45383</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" s="3">
+        <v>45384</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="3">
+        <v>45385</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="3">
+        <v>45386</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
+        <v>45387</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A98" s="3">
+        <v>45388</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99" s="3">
+        <v>45389</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="3">
+        <v>45390</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="3">
+        <v>45391</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A102" s="3">
+        <v>45392</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A103" s="3">
+        <v>45393</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A104" s="3">
+        <v>45394</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A105" s="3">
+        <v>45395</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A106" s="3">
+        <v>45396</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A107" s="3">
+        <v>45397</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A108" s="3">
+        <v>45398</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A109" s="3">
+        <v>45399</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A110" s="3">
+        <v>45400</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A111" s="3">
+        <v>45401</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A112" s="3">
+        <v>45402</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A113" s="3">
+        <v>45403</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A114" s="3">
+        <v>45404</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A115" s="3">
+        <v>45405</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A116" s="3">
+        <v>45406</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A117" s="3">
+        <v>45407</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A118" s="3">
+        <v>45408</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A119" s="3">
+        <v>45409</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A120" s="3">
+        <v>45410</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="4"/>
+    </row>
+    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A121" s="3">
+        <v>45411</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A122" s="3">
+        <v>45412</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A123" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A124" s="3">
+        <v>45414</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="4"/>
+    </row>
+    <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A125" s="3">
+        <v>45415</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A126" s="3">
+        <v>45416</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A127" s="3">
+        <v>45417</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A128" s="3">
+        <v>45418</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A129" s="3">
+        <v>45419</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="4"/>
+    </row>
+    <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A130" s="3">
+        <v>45420</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="4"/>
+    </row>
+    <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A131" s="3">
+        <v>45421</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A132" s="3">
+        <v>45422</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A133" s="3">
+        <v>45423</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A134" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A135" s="3">
+        <v>45425</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A136" s="3">
+        <v>45426</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A137" s="3">
+        <v>45427</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A138" s="3">
+        <v>45428</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A139" s="3">
+        <v>45429</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="4"/>
+    </row>
+    <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A140" s="3">
+        <v>45430</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="4"/>
+    </row>
+    <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A141" s="3">
+        <v>45431</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="4"/>
+    </row>
+    <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A142" s="3">
+        <v>45432</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="4"/>
+    </row>
+    <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A143" s="3">
+        <v>45433</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="4"/>
+    </row>
+    <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A144" s="3">
+        <v>45434</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A145" s="3">
+        <v>45435</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A146" s="3">
+        <v>45436</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A147" s="3">
+        <v>45437</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A148" s="3">
+        <v>45438</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="4"/>
+    </row>
+    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A149" s="3">
+        <v>45439</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="4"/>
+    </row>
+    <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A150" s="3">
+        <v>45440</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="4"/>
+    </row>
+    <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A151" s="3">
+        <v>45441</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A152" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="4"/>
+    </row>
+    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A153" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="4"/>
+    </row>
+    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A154" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="4"/>
+    </row>
+    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A155" s="3">
+        <v>45445</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="4"/>
+    </row>
+    <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A156" s="3">
+        <v>45446</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="4"/>
+    </row>
+    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A157" s="3">
+        <v>45447</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="4"/>
+    </row>
+    <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A158" s="3">
+        <v>45448</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="4"/>
+    </row>
+    <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A159" s="3">
+        <v>45449</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="4"/>
+    </row>
+    <row r="160" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A160" s="3">
+        <v>45450</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="4"/>
+    </row>
+    <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A161" s="3">
+        <v>45451</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="4"/>
+    </row>
+    <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A162" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="4"/>
+    </row>
+    <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A163" s="3">
+        <v>45453</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="4"/>
+    </row>
+    <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A164" s="3">
+        <v>45454</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A165" s="3">
+        <v>45455</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="4"/>
+    </row>
+    <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A166" s="3">
+        <v>45456</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A167" s="3">
+        <v>45457</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="4"/>
+    </row>
+    <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A168" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="4"/>
+    </row>
+    <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A169" s="3">
+        <v>45459</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A170" s="3">
+        <v>45460</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="4"/>
+    </row>
+    <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A171" s="3">
+        <v>45461</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="4"/>
+    </row>
+    <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A172" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="4"/>
+    </row>
+    <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A173" s="3">
+        <v>45463</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="4"/>
+    </row>
+    <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A174" s="3">
+        <v>45464</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="4"/>
+    </row>
+    <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A175" s="3">
+        <v>45465</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A176" s="3">
+        <v>45466</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="4"/>
+    </row>
+    <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A177" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="4"/>
+    </row>
+    <row r="178" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A178" s="3">
+        <v>45468</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="4"/>
+    </row>
+    <row r="179" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A179" s="3">
+        <v>45469</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="4"/>
+    </row>
+    <row r="180" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A180" s="3">
+        <v>45470</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="4"/>
+    </row>
+    <row r="181" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A181" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="4"/>
+    </row>
+    <row r="182" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A182" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="4"/>
+    </row>
+    <row r="183" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A183" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="4"/>
+    </row>
+    <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A184" s="3">
+        <v>45474</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="4"/>
+    </row>
+    <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A185" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="4"/>
+    </row>
+    <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A186" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" s="4"/>
+    </row>
+    <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A187" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="4"/>
+    </row>
+    <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A188" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="4"/>
+    </row>
+    <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A189" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="4"/>
+    </row>
+    <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A190" s="3">
+        <v>45480</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="4"/>
+    </row>
+    <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A191" s="3">
+        <v>45481</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="4"/>
+    </row>
+    <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A192" s="3">
+        <v>45482</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="4"/>
+    </row>
+    <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A193" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" s="4"/>
+    </row>
+    <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A194" s="3">
+        <v>45484</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" s="4"/>
+    </row>
+    <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A195" s="3">
+        <v>45485</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="4"/>
+    </row>
+    <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A196" s="3">
+        <v>45486</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="4"/>
+    </row>
+    <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A197" s="3">
+        <v>45487</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="4"/>
+    </row>
+    <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A198" s="3">
+        <v>45488</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="4"/>
+    </row>
+    <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A199" s="3">
+        <v>45489</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="4"/>
+    </row>
+    <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A200" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="4"/>
+    </row>
+    <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A201" s="3">
+        <v>45491</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="4"/>
+    </row>
+    <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A202" s="3">
+        <v>45492</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" s="4"/>
+    </row>
+    <row r="203" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A203" s="3">
+        <v>45493</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="4"/>
+    </row>
+    <row r="204" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A204" s="3">
+        <v>45494</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="4"/>
+    </row>
+    <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A205" s="3">
+        <v>45495</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="4"/>
+    </row>
+    <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A206" s="3">
+        <v>45496</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="4"/>
+    </row>
+    <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A207" s="3">
+        <v>45497</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="4"/>
+    </row>
+    <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A208" s="3">
+        <v>45498</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="4"/>
+    </row>
+    <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A209" s="3">
+        <v>45499</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" s="4"/>
+    </row>
+    <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A210" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="4"/>
+    </row>
+    <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A211" s="3">
+        <v>45501</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="4"/>
+    </row>
+    <row r="212" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A212" s="3">
+        <v>45502</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="4"/>
+    </row>
+    <row r="213" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A213" s="3">
+        <v>45503</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="4"/>
+    </row>
+    <row r="214" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A214" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="4"/>
+    </row>
+    <row r="215" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A215" s="3">
+        <v>45505</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="4"/>
+    </row>
+    <row r="216" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A216" s="3">
+        <v>45506</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="4"/>
+    </row>
+    <row r="217" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A217" s="3">
+        <v>45507</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="4"/>
+    </row>
+    <row r="218" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A218" s="3">
+        <v>45508</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="4"/>
+    </row>
+    <row r="219" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A219" s="3">
+        <v>45509</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" s="4"/>
+    </row>
+    <row r="220" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A220" s="3">
+        <v>45510</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="4"/>
+    </row>
+    <row r="221" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A221" s="3">
+        <v>45511</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="4"/>
+    </row>
+    <row r="222" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A222" s="3">
+        <v>45512</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="4"/>
+    </row>
+    <row r="223" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A223" s="3">
+        <v>45513</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="4"/>
+    </row>
+    <row r="224" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A224" s="3">
+        <v>45514</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="4"/>
+    </row>
+    <row r="225" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A225" s="3">
+        <v>45515</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="4"/>
+    </row>
+    <row r="226" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A226" s="3">
+        <v>45516</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" s="4"/>
+    </row>
+    <row r="227" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A227" s="3">
+        <v>45517</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="4"/>
+    </row>
+    <row r="228" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A228" s="3">
+        <v>45518</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="4"/>
+    </row>
+    <row r="229" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A229" s="3">
+        <v>45519</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="4"/>
+    </row>
+    <row r="230" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A230" s="3">
+        <v>45520</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" s="4"/>
+    </row>
+    <row r="231" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A231" s="3">
+        <v>45521</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="4"/>
+    </row>
+    <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A232" s="3">
+        <v>45522</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" s="4"/>
+    </row>
+    <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A233" s="3">
+        <v>45523</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="4"/>
+    </row>
+    <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A234" s="3">
+        <v>45524</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="4"/>
+    </row>
+    <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A235" s="3">
+        <v>45525</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="4"/>
+    </row>
+    <row r="236" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A236" s="3">
+        <v>45526</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="4"/>
+    </row>
+    <row r="237" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A237" s="3">
+        <v>45527</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="4"/>
+    </row>
+    <row r="238" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A238" s="3">
+        <v>45528</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238" s="4"/>
+    </row>
+    <row r="239" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A239" s="3">
+        <v>45529</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="4"/>
+    </row>
+    <row r="240" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A240" s="3">
+        <v>45530</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="4"/>
+    </row>
+    <row r="241" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A241" s="3">
+        <v>45531</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="4"/>
+    </row>
+    <row r="242" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A242" s="3">
+        <v>45532</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" s="4"/>
+    </row>
+    <row r="243" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A243" s="3">
+        <v>45533</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" s="4"/>
+    </row>
+    <row r="244" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A244" s="3">
+        <v>45534</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" s="4"/>
+    </row>
+    <row r="245" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A245" s="3">
+        <v>45535</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" s="4"/>
+    </row>
+    <row r="246" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A246" s="3">
+        <v>45536</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="4"/>
+    </row>
+    <row r="247" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A247" s="3">
+        <v>45537</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" s="4"/>
+    </row>
+    <row r="248" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A248" s="3">
+        <v>45538</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" s="4"/>
+    </row>
+    <row r="249" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A249" s="3">
+        <v>45539</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="4"/>
+    </row>
+    <row r="250" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A250" s="3">
+        <v>45540</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" s="4"/>
+    </row>
+    <row r="251" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A251" s="3">
+        <v>45541</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="4"/>
+    </row>
+    <row r="252" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A252" s="3">
+        <v>45542</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252" s="4"/>
+    </row>
+    <row r="253" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A253" s="3">
+        <v>45543</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="4"/>
+    </row>
+    <row r="254" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A254" s="3">
+        <v>45544</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" s="4"/>
+    </row>
+    <row r="255" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A255" s="3">
+        <v>45545</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="4"/>
+    </row>
+    <row r="256" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A256" s="3">
+        <v>45546</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" s="4"/>
+    </row>
+    <row r="257" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A257" s="3">
+        <v>45547</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="4"/>
+    </row>
+    <row r="258" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A258" s="3">
+        <v>45548</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" s="4"/>
+    </row>
+    <row r="259" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A259" s="3">
+        <v>45549</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" s="4"/>
+    </row>
+    <row r="260" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A260" s="3">
+        <v>45550</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" s="4"/>
+    </row>
+    <row r="261" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A261" s="3">
+        <v>45551</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" s="4"/>
+    </row>
+    <row r="262" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A262" s="3">
+        <v>45552</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" s="4"/>
+    </row>
+    <row r="263" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A263" s="3">
+        <v>45553</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" s="4"/>
+    </row>
+    <row r="264" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A264" s="3">
+        <v>45554</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" s="4"/>
+    </row>
+    <row r="265" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A265" s="3">
+        <v>45555</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" s="4"/>
+    </row>
+    <row r="266" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A266" s="3">
+        <v>45556</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266" s="4"/>
+    </row>
+    <row r="267" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A267" s="3">
+        <v>45557</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" s="4"/>
+    </row>
+    <row r="268" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A268" s="3">
+        <v>45558</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" s="4"/>
+    </row>
+    <row r="269" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A269" s="3">
+        <v>45559</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" s="4"/>
+    </row>
+    <row r="270" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A270" s="3">
+        <v>45560</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270" s="4"/>
+    </row>
+    <row r="271" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A271" s="3">
+        <v>45561</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="4"/>
+    </row>
+    <row r="272" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A272" s="3">
+        <v>45562</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" s="4"/>
+    </row>
+    <row r="273" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A273" s="3">
+        <v>45563</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" s="4"/>
+    </row>
+    <row r="274" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A274" s="3">
+        <v>45564</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="4"/>
+    </row>
+    <row r="275" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A275" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" s="4"/>
+    </row>
+    <row r="276" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A276" s="3">
+        <v>45566</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" s="4"/>
+    </row>
+    <row r="277" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A277" s="3">
+        <v>45567</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="4"/>
+    </row>
+    <row r="278" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A278" s="3">
+        <v>45568</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" s="4"/>
+    </row>
+    <row r="279" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A279" s="3">
+        <v>45569</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" s="4"/>
+    </row>
+    <row r="280" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A280" s="3">
+        <v>45570</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280" s="4"/>
+    </row>
+    <row r="281" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A281" s="3">
+        <v>45571</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="4"/>
+    </row>
+    <row r="282" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A282" s="3">
+        <v>45572</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" s="4"/>
+    </row>
+    <row r="283" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A283" s="3">
+        <v>45573</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" s="4"/>
+    </row>
+    <row r="284" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A284" s="3">
+        <v>45574</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" s="4"/>
+    </row>
+    <row r="285" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A285" s="3">
+        <v>45575</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" s="4"/>
+    </row>
+    <row r="286" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A286" s="3">
+        <v>45576</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286" s="4"/>
+    </row>
+    <row r="287" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A287" s="3">
+        <v>45577</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" s="4"/>
+    </row>
+    <row r="288" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A288" s="3">
+        <v>45578</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="4"/>
+    </row>
+    <row r="289" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A289" s="3">
+        <v>45579</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="4"/>
+    </row>
+    <row r="290" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A290" s="3">
+        <v>45580</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290" s="4"/>
+    </row>
+    <row r="291" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A291" s="3">
+        <v>45581</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291" s="4"/>
+    </row>
+    <row r="292" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A292" s="3">
+        <v>45582</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="4"/>
+    </row>
+    <row r="293" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A293" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="4"/>
+    </row>
+    <row r="294" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A294" s="3">
+        <v>45584</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294" s="4"/>
+    </row>
+    <row r="295" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A295" s="3">
+        <v>45585</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295" s="4"/>
+    </row>
+    <row r="296" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A296" s="3">
+        <v>45586</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296" s="4"/>
+    </row>
+    <row r="297" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A297" s="3">
+        <v>45587</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297" s="4"/>
+    </row>
+    <row r="298" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A298" s="3">
+        <v>45588</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298" s="4"/>
+    </row>
+    <row r="299" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A299" s="3">
+        <v>45589</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299" s="4"/>
+    </row>
+    <row r="300" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A300" s="3">
+        <v>45590</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300" s="4"/>
+    </row>
+    <row r="301" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A301" s="3">
+        <v>45591</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" s="4"/>
+    </row>
+    <row r="302" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A302" s="3">
+        <v>45592</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302" s="4"/>
+    </row>
+    <row r="303" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A303" s="3">
+        <v>45593</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C303" s="4"/>
+    </row>
+    <row r="304" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A304" s="3">
+        <v>45594</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304" s="4"/>
+    </row>
+    <row r="305" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A305" s="3">
+        <v>45595</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C305" s="4"/>
+    </row>
+    <row r="306" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A306" s="3">
+        <v>45596</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306" s="4"/>
+    </row>
+    <row r="307" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A307" s="3">
+        <v>45597</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C307" s="4"/>
+    </row>
+    <row r="308" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A308" s="3">
+        <v>45598</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308" s="4"/>
+    </row>
+    <row r="309" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A309" s="3">
+        <v>45599</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309" s="4"/>
+    </row>
+    <row r="310" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A310" s="3">
+        <v>45600</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C310" s="4"/>
+    </row>
+    <row r="311" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A311" s="3">
+        <v>45601</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C311" s="4"/>
+    </row>
+    <row r="312" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A312" s="3">
+        <v>45602</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312" s="4"/>
+    </row>
+    <row r="313" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A313" s="3">
+        <v>45603</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C313" s="4"/>
+    </row>
+    <row r="314" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A314" s="3">
+        <v>45604</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314" s="4"/>
+    </row>
+    <row r="315" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A315" s="3">
+        <v>45605</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C315" s="4"/>
+    </row>
+    <row r="316" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A316" s="3">
+        <v>45606</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316" s="4"/>
+    </row>
+    <row r="317" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A317" s="3">
+        <v>45607</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C317" s="4"/>
+    </row>
+    <row r="318" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A318" s="3">
+        <v>45608</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C318" s="4"/>
+    </row>
+    <row r="319" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A319" s="3">
+        <v>45609</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C319" s="4"/>
+    </row>
+    <row r="320" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A320" s="3">
+        <v>45610</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C320" s="4"/>
+    </row>
+    <row r="321" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A321" s="3">
+        <v>45611</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C321" s="4"/>
+    </row>
+    <row r="322" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A322" s="3">
+        <v>45612</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C322" s="4"/>
+    </row>
+    <row r="323" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A323" s="3">
+        <v>45613</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C323" s="4"/>
+    </row>
+    <row r="324" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A324" s="3">
+        <v>45614</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C324" s="4"/>
+    </row>
+    <row r="325" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A325" s="3">
+        <v>45615</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C325" s="4"/>
+    </row>
+    <row r="326" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A326" s="3">
+        <v>45616</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C326" s="4"/>
+    </row>
+    <row r="327" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A327" s="3">
+        <v>45617</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C327" s="4"/>
+    </row>
+    <row r="328" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A328" s="3">
+        <v>45618</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C328" s="4"/>
+    </row>
+    <row r="329" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A329" s="3">
+        <v>45619</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C329" s="4"/>
+    </row>
+    <row r="330" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A330" s="3">
+        <v>45620</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330" s="4"/>
+    </row>
+    <row r="331" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A331" s="3">
+        <v>45621</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C331" s="4"/>
+    </row>
+    <row r="332" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A332" s="3">
+        <v>45622</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332" s="4"/>
+    </row>
+    <row r="333" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A333" s="3">
+        <v>45623</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C333" s="4"/>
+    </row>
+    <row r="334" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A334" s="3">
+        <v>45624</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C334" s="4"/>
+    </row>
+    <row r="335" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A335" s="3">
+        <v>45625</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C335" s="4"/>
+    </row>
+    <row r="336" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A336" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C336" s="4"/>
+    </row>
+    <row r="337" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A337" s="3">
+        <v>45627</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C337" s="4"/>
+    </row>
+    <row r="338" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A338" s="3">
+        <v>45628</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C338" s="4"/>
+    </row>
+    <row r="339" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A339" s="3">
+        <v>45629</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C339" s="4"/>
+    </row>
+    <row r="340" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A340" s="3">
+        <v>45630</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C340" s="4"/>
+    </row>
+    <row r="341" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A341" s="3">
+        <v>45631</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C341" s="4"/>
+    </row>
+    <row r="342" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A342" s="3">
+        <v>45632</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C342" s="4"/>
+    </row>
+    <row r="343" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A343" s="3">
+        <v>45633</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C343" s="4"/>
+    </row>
+    <row r="344" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A344" s="3">
+        <v>45634</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C344" s="4"/>
+    </row>
+    <row r="345" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A345" s="3">
+        <v>45635</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C345" s="4"/>
+    </row>
+    <row r="346" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A346" s="3">
+        <v>45636</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C346" s="4"/>
+    </row>
+    <row r="347" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A347" s="3">
+        <v>45637</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C347" s="4"/>
+    </row>
+    <row r="348" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A348" s="3">
+        <v>45638</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C348" s="4"/>
+    </row>
+    <row r="349" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A349" s="3">
+        <v>45639</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C349" s="4"/>
+    </row>
+    <row r="350" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A350" s="3">
+        <v>45640</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C350" s="4"/>
+    </row>
+    <row r="351" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A351" s="3">
+        <v>45641</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C351" s="4"/>
+    </row>
+    <row r="352" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A352" s="3">
+        <v>45642</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C352" s="4"/>
+    </row>
+    <row r="353" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A353" s="3">
+        <v>45643</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C353" s="4"/>
+    </row>
+    <row r="354" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A354" s="3">
+        <v>45644</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C354" s="4"/>
+    </row>
+    <row r="355" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A355" s="3">
+        <v>45645</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355" s="4"/>
+    </row>
+    <row r="356" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A356" s="3">
+        <v>45646</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C356" s="4"/>
+    </row>
+    <row r="357" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A357" s="3">
+        <v>45647</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C357" s="4"/>
+    </row>
+    <row r="358" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A358" s="3">
+        <v>45648</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C358" s="4"/>
+    </row>
+    <row r="359" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A359" s="3">
+        <v>45649</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C359" s="4"/>
+    </row>
+    <row r="360" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A360" s="3">
+        <v>45650</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C360" s="4"/>
+    </row>
+    <row r="361" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A361" s="3">
+        <v>45651</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C361" s="4"/>
+    </row>
+    <row r="362" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A362" s="3">
+        <v>45652</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C362" s="4"/>
+    </row>
+    <row r="363" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A363" s="3">
+        <v>45653</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C363" s="4"/>
+    </row>
+    <row r="364" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A364" s="3">
+        <v>45654</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C364" s="4"/>
+    </row>
+    <row r="365" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A365" s="3">
+        <v>45655</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C365" s="4"/>
+    </row>
+    <row r="366" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A366" s="3">
+        <v>45656</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C366" s="4"/>
+    </row>
+    <row r="367" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A367" s="3">
+        <v>45657</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C367" s="4"/>
+    </row>
+    <row r="368" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A368" s="3"/>
+      <c r="C368" s="4"/>
+    </row>
+    <row r="369" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C369" s="4"/>
+    </row>
+    <row r="370" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C370" s="4"/>
+    </row>
+    <row r="371" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C371" s="4"/>
+    </row>
+    <row r="372" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C372" s="4"/>
+    </row>
+    <row r="373" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C373" s="4"/>
+    </row>
+    <row r="374" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C374" s="4"/>
+    </row>
+    <row r="375" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C375" s="4"/>
+    </row>
+    <row r="376" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C376" s="4"/>
+    </row>
+    <row r="377" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C377" s="4"/>
+    </row>
+    <row r="378" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C378" s="4"/>
+    </row>
+    <row r="379" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C379" s="4"/>
+    </row>
+    <row r="380" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C380" s="4"/>
+    </row>
+    <row r="381" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C381" s="4"/>
+    </row>
+    <row r="382" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C382" s="4"/>
+    </row>
+    <row r="383" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C383" s="4"/>
+    </row>
+    <row r="384" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C384" s="4"/>
+    </row>
+    <row r="385" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C385" s="4"/>
+    </row>
+    <row r="386" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C386" s="4"/>
+    </row>
+    <row r="387" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C387" s="4"/>
+    </row>
+    <row r="388" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C388" s="4"/>
+    </row>
+    <row r="389" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C389" s="4"/>
+    </row>
+    <row r="390" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C390" s="4"/>
+    </row>
+    <row r="391" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C391" s="4"/>
+    </row>
+    <row r="392" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C392" s="4"/>
+    </row>
+    <row r="393" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C393" s="4"/>
+    </row>
+    <row r="394" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C394" s="4"/>
+    </row>
+    <row r="395" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C395" s="4"/>
+    </row>
+    <row r="396" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C396" s="4"/>
+    </row>
+    <row r="397" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C397" s="4"/>
+    </row>
+    <row r="398" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C398" s="4"/>
+    </row>
+    <row r="399" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C399" s="4"/>
+    </row>
+    <row r="400" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C400" s="4"/>
+    </row>
+    <row r="401" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C401" s="4"/>
+    </row>
+    <row r="402" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C402" s="4"/>
+    </row>
+    <row r="403" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C403" s="4"/>
+    </row>
+    <row r="404" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C404" s="4"/>
+    </row>
+    <row r="405" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C405" s="4"/>
+    </row>
+    <row r="406" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C406" s="4"/>
+    </row>
+    <row r="407" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C407" s="4"/>
+    </row>
+    <row r="408" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C408" s="4"/>
+    </row>
+    <row r="409" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C409" s="4"/>
+    </row>
+    <row r="410" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C410" s="4"/>
+    </row>
+    <row r="411" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C411" s="4"/>
+    </row>
+    <row r="412" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C412" s="4"/>
+    </row>
+    <row r="413" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C413" s="4"/>
+    </row>
+    <row r="414" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C414" s="4"/>
+    </row>
+    <row r="415" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C415" s="4"/>
+    </row>
+    <row r="416" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C416" s="4"/>
+    </row>
+    <row r="417" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C417" s="4"/>
+    </row>
+    <row r="418" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C418" s="4"/>
+    </row>
+    <row r="419" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C419" s="4"/>
+    </row>
+    <row r="420" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C420" s="4"/>
+    </row>
+    <row r="421" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C421" s="4"/>
+    </row>
+    <row r="422" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C422" s="4"/>
+    </row>
+    <row r="423" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C423" s="4"/>
+    </row>
+    <row r="424" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C424" s="4"/>
+    </row>
+    <row r="425" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C425" s="4"/>
+    </row>
+    <row r="426" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C426" s="4"/>
+    </row>
+    <row r="427" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C427" s="4"/>
+    </row>
+    <row r="428" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C428" s="4"/>
+    </row>
+    <row r="429" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C429" s="4"/>
+    </row>
+    <row r="430" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C430" s="4"/>
+    </row>
+    <row r="431" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C431" s="4"/>
+    </row>
+    <row r="432" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C432" s="4"/>
+    </row>
+    <row r="433" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C433" s="4"/>
+    </row>
+    <row r="434" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C434" s="4"/>
+    </row>
+    <row r="435" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C435" s="4"/>
+    </row>
+    <row r="436" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C436" s="4"/>
+    </row>
+    <row r="437" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C437" s="4"/>
+    </row>
+    <row r="438" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C438" s="4"/>
+    </row>
+    <row r="439" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C439" s="4"/>
+    </row>
+    <row r="440" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C440" s="4"/>
+    </row>
+    <row r="441" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C441" s="4"/>
+    </row>
+    <row r="442" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C442" s="4"/>
+    </row>
+    <row r="443" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C443" s="4"/>
+    </row>
+    <row r="444" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C444" s="4"/>
+    </row>
+    <row r="445" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C445" s="4"/>
+    </row>
+    <row r="446" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C446" s="4"/>
+    </row>
+    <row r="447" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C447" s="4"/>
+    </row>
+    <row r="448" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C448" s="4"/>
+    </row>
+    <row r="449" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C449" s="4"/>
+    </row>
+    <row r="450" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C450" s="4"/>
+    </row>
+    <row r="451" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C451" s="4"/>
+    </row>
+    <row r="452" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C452" s="4"/>
+    </row>
+    <row r="453" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C453" s="4"/>
+    </row>
+    <row r="454" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C454" s="4"/>
+    </row>
+    <row r="455" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C455" s="4"/>
+    </row>
+    <row r="456" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C456" s="4"/>
+    </row>
+    <row r="457" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C457" s="4"/>
+    </row>
+    <row r="458" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C458" s="4"/>
+    </row>
+    <row r="459" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C459" s="4"/>
+    </row>
+    <row r="460" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C460" s="4"/>
+    </row>
+    <row r="461" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C461" s="4"/>
+    </row>
+    <row r="462" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C462" s="4"/>
+    </row>
+    <row r="463" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C463" s="4"/>
+    </row>
+    <row r="464" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C464" s="4"/>
+    </row>
+    <row r="465" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C465" s="4"/>
+    </row>
+    <row r="466" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C466" s="4"/>
+    </row>
+    <row r="467" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C467" s="4"/>
+    </row>
+    <row r="468" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C468" s="4"/>
+    </row>
+    <row r="469" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C469" s="4"/>
+    </row>
+    <row r="470" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C470" s="4"/>
+    </row>
+    <row r="471" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C471" s="4"/>
+    </row>
+    <row r="472" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C472" s="4"/>
+    </row>
+    <row r="473" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C473" s="4"/>
+    </row>
+    <row r="474" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C474" s="4"/>
+    </row>
+    <row r="475" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C475" s="4"/>
+    </row>
+    <row r="476" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C476" s="4"/>
+    </row>
+    <row r="477" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C477" s="4"/>
+    </row>
+    <row r="478" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C478" s="4"/>
+    </row>
+    <row r="479" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C479" s="4"/>
+    </row>
+    <row r="480" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C480" s="4"/>
+    </row>
+    <row r="481" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C481" s="4"/>
+    </row>
+    <row r="482" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C482" s="4"/>
+    </row>
+    <row r="483" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C483" s="4"/>
+    </row>
+    <row r="484" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C484" s="4"/>
+    </row>
+    <row r="485" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C485" s="4"/>
+    </row>
+    <row r="486" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C486" s="4"/>
+    </row>
+    <row r="487" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C487" s="4"/>
+    </row>
+    <row r="488" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C488" s="4"/>
+    </row>
+    <row r="489" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C489" s="4"/>
+    </row>
+    <row r="490" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C490" s="4"/>
+    </row>
+    <row r="491" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C491" s="4"/>
+    </row>
+    <row r="492" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C492" s="4"/>
+    </row>
+    <row r="493" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C493" s="4"/>
+    </row>
+    <row r="494" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C494" s="4"/>
+    </row>
+    <row r="495" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C495" s="4"/>
+    </row>
+    <row r="496" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C496" s="4"/>
+    </row>
+    <row r="497" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C497" s="4"/>
+    </row>
+    <row r="498" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C498" s="4"/>
+    </row>
+    <row r="499" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C499" s="4"/>
+    </row>
+    <row r="500" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C500" s="4"/>
+    </row>
+    <row r="501" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C501" s="4"/>
+    </row>
+    <row r="502" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C502" s="4"/>
+    </row>
+    <row r="503" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C503" s="4"/>
+    </row>
+    <row r="504" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C504" s="4"/>
+    </row>
+    <row r="505" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C505" s="4"/>
+    </row>
+    <row r="506" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C506" s="4"/>
+    </row>
+    <row r="507" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C507" s="4"/>
+    </row>
+    <row r="508" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C508" s="4"/>
+    </row>
+    <row r="509" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C509" s="4"/>
+    </row>
+    <row r="510" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C510" s="4"/>
+    </row>
+    <row r="511" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C511" s="4"/>
+    </row>
+    <row r="512" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C512" s="4"/>
+    </row>
+    <row r="513" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C513" s="4"/>
+    </row>
+    <row r="514" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C514" s="4"/>
+    </row>
+    <row r="515" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C515" s="4"/>
+    </row>
+    <row r="516" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C516" s="4"/>
+    </row>
+    <row r="517" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C517" s="4"/>
+    </row>
+    <row r="518" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C518" s="4"/>
+    </row>
+    <row r="519" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C519" s="4"/>
+    </row>
+    <row r="520" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C520" s="4"/>
+    </row>
+    <row r="521" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C521" s="4"/>
+    </row>
+    <row r="522" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C522" s="4"/>
+    </row>
+    <row r="523" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C523" s="4"/>
+    </row>
+    <row r="524" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C524" s="4"/>
+    </row>
+    <row r="525" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C525" s="4"/>
+    </row>
+    <row r="526" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C526" s="4"/>
+    </row>
+    <row r="527" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C527" s="4"/>
+    </row>
+    <row r="528" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C528" s="4"/>
+    </row>
+    <row r="529" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C529" s="4"/>
+    </row>
+    <row r="530" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C530" s="4"/>
+    </row>
+    <row r="531" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C531" s="4"/>
+    </row>
+    <row r="532" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C532" s="4"/>
+    </row>
+    <row r="533" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C533" s="4"/>
+    </row>
+    <row r="534" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C534" s="4"/>
+    </row>
+    <row r="535" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C535" s="4"/>
+    </row>
+    <row r="536" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C536" s="4"/>
+    </row>
+    <row r="537" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C537" s="4"/>
+    </row>
+    <row r="538" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C538" s="4"/>
+    </row>
+    <row r="539" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C539" s="4"/>
+    </row>
+    <row r="540" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C540" s="4"/>
+    </row>
+    <row r="541" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C541" s="4"/>
+    </row>
+    <row r="542" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C542" s="4"/>
+    </row>
+    <row r="543" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C543" s="4"/>
+    </row>
+    <row r="544" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C544" s="4"/>
+    </row>
+    <row r="545" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C545" s="4"/>
+    </row>
+    <row r="546" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C546" s="4"/>
+    </row>
+    <row r="547" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C547" s="4"/>
+    </row>
+    <row r="548" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C548" s="4"/>
+    </row>
+    <row r="549" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C549" s="4"/>
+    </row>
+    <row r="550" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C550" s="4"/>
+    </row>
+    <row r="551" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C551" s="4"/>
+    </row>
+    <row r="552" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C552" s="4"/>
+    </row>
+    <row r="553" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C553" s="4"/>
+    </row>
+    <row r="554" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C554" s="4"/>
+    </row>
+    <row r="555" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C555" s="4"/>
+    </row>
+    <row r="556" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C556" s="4"/>
+    </row>
+    <row r="557" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C557" s="4"/>
+    </row>
+    <row r="558" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C558" s="4"/>
+    </row>
+    <row r="559" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C559" s="4"/>
+    </row>
+    <row r="560" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C560" s="4"/>
+    </row>
+    <row r="561" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C561" s="4"/>
+    </row>
+    <row r="562" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C562" s="4"/>
+    </row>
+    <row r="563" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C563" s="4"/>
+    </row>
+    <row r="564" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C564" s="4"/>
+    </row>
+    <row r="565" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C565" s="4"/>
+    </row>
+    <row r="566" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C566" s="4"/>
+    </row>
+    <row r="567" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C567" s="4"/>
+    </row>
+    <row r="568" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C568" s="4"/>
+    </row>
+    <row r="569" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C569" s="4"/>
+    </row>
+    <row r="570" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C570" s="4"/>
+    </row>
+    <row r="571" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C571" s="4"/>
+    </row>
+    <row r="572" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C572" s="4"/>
+    </row>
+    <row r="573" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C573" s="4"/>
+    </row>
+    <row r="574" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C574" s="4"/>
+    </row>
+    <row r="575" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C575" s="4"/>
+    </row>
+    <row r="576" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C576" s="4"/>
+    </row>
+    <row r="577" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C577" s="4"/>
+    </row>
+    <row r="578" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C578" s="4"/>
+    </row>
+    <row r="579" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C579" s="4"/>
+    </row>
+    <row r="580" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C580" s="4"/>
+    </row>
+    <row r="581" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C581" s="4"/>
+    </row>
+    <row r="582" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C582" s="4"/>
+    </row>
+    <row r="583" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C583" s="4"/>
+    </row>
+    <row r="584" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C584" s="4"/>
+    </row>
+    <row r="585" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C585" s="4"/>
+    </row>
+    <row r="586" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C586" s="4"/>
+    </row>
+    <row r="587" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C587" s="4"/>
+    </row>
+    <row r="588" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C588" s="4"/>
+    </row>
+    <row r="589" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C589" s="4"/>
+    </row>
+    <row r="590" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C590" s="4"/>
+    </row>
+    <row r="591" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C591" s="4"/>
+    </row>
+    <row r="592" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C592" s="4"/>
+    </row>
+    <row r="593" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C593" s="4"/>
+    </row>
+    <row r="594" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C594" s="4"/>
+    </row>
+    <row r="595" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C595" s="4"/>
+    </row>
+    <row r="596" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C596" s="4"/>
+    </row>
+    <row r="597" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C597" s="4"/>
+    </row>
+    <row r="598" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C598" s="4"/>
+    </row>
+    <row r="599" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C599" s="4"/>
+    </row>
+    <row r="600" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C600" s="4"/>
+    </row>
+    <row r="601" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C601" s="4"/>
+    </row>
+    <row r="602" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C602" s="4"/>
+    </row>
+    <row r="603" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C603" s="4"/>
+    </row>
+    <row r="604" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C604" s="4"/>
+    </row>
+    <row r="605" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C605" s="4"/>
+    </row>
+    <row r="606" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C606" s="4"/>
+    </row>
+    <row r="607" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C607" s="4"/>
+    </row>
+    <row r="608" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C608" s="4"/>
+    </row>
+    <row r="609" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C609" s="4"/>
+    </row>
+    <row r="610" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C610" s="4"/>
+    </row>
+    <row r="611" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C611" s="4"/>
+    </row>
+    <row r="612" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C612" s="4"/>
+    </row>
+    <row r="613" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C613" s="4"/>
+    </row>
+    <row r="614" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C614" s="4"/>
+    </row>
+    <row r="615" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C615" s="4"/>
+    </row>
+    <row r="616" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C616" s="4"/>
+    </row>
+    <row r="617" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C617" s="4"/>
+    </row>
+    <row r="618" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C618" s="4"/>
+    </row>
+    <row r="619" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C619" s="4"/>
+    </row>
+    <row r="620" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C620" s="4"/>
+    </row>
+    <row r="621" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C621" s="4"/>
+    </row>
+    <row r="622" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C622" s="4"/>
+    </row>
+    <row r="623" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C623" s="4"/>
+    </row>
+    <row r="624" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C624" s="4"/>
+    </row>
+    <row r="625" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C625" s="4"/>
+    </row>
+    <row r="626" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C626" s="4"/>
+    </row>
+    <row r="627" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C627" s="4"/>
+    </row>
+    <row r="628" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C628" s="4"/>
+    </row>
+    <row r="629" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C629" s="4"/>
+    </row>
+    <row r="630" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C630" s="4"/>
+    </row>
+    <row r="631" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C631" s="4"/>
+    </row>
+    <row r="632" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C632" s="4"/>
+    </row>
+    <row r="633" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C633" s="4"/>
+    </row>
+    <row r="634" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C634" s="4"/>
+    </row>
+    <row r="635" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C635" s="4"/>
+    </row>
+    <row r="636" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C636" s="4"/>
+    </row>
+    <row r="637" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C637" s="4"/>
+    </row>
+    <row r="638" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C638" s="4"/>
+    </row>
+    <row r="639" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C639" s="4"/>
+    </row>
+    <row r="640" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C640" s="4"/>
+    </row>
+    <row r="641" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C641" s="4"/>
+    </row>
+    <row r="642" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C642" s="4"/>
+    </row>
+    <row r="643" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C643" s="4"/>
+    </row>
+    <row r="644" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C644" s="4"/>
+    </row>
+    <row r="645" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C645" s="4"/>
+    </row>
+    <row r="646" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C646" s="4"/>
+    </row>
+    <row r="647" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C647" s="4"/>
+    </row>
+    <row r="648" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C648" s="4"/>
+    </row>
+    <row r="649" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C649" s="4"/>
+    </row>
+    <row r="650" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C650" s="4"/>
+    </row>
+    <row r="651" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C651" s="4"/>
+    </row>
+    <row r="652" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C652" s="4"/>
+    </row>
+    <row r="653" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C653" s="4"/>
+    </row>
+    <row r="654" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C654" s="4"/>
+    </row>
+    <row r="655" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C655" s="4"/>
+    </row>
+    <row r="656" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C656" s="4"/>
+    </row>
+    <row r="657" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C657" s="4"/>
+    </row>
+    <row r="658" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C658" s="4"/>
+    </row>
+    <row r="659" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C659" s="4"/>
+    </row>
+    <row r="660" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C660" s="4"/>
+    </row>
+    <row r="661" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C661" s="4"/>
+    </row>
+    <row r="662" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C662" s="4"/>
+    </row>
+    <row r="663" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C663" s="4"/>
+    </row>
+    <row r="664" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C664" s="4"/>
+    </row>
+    <row r="665" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C665" s="4"/>
+    </row>
+    <row r="666" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C666" s="4"/>
+    </row>
+    <row r="667" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C667" s="4"/>
+    </row>
+    <row r="668" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C668" s="4"/>
+    </row>
+    <row r="669" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C669" s="4"/>
+    </row>
+    <row r="670" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C670" s="4"/>
+    </row>
+    <row r="671" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C671" s="4"/>
+    </row>
+    <row r="672" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C672" s="4"/>
+    </row>
+    <row r="673" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C673" s="4"/>
+    </row>
+    <row r="674" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C674" s="4"/>
+    </row>
+    <row r="675" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C675" s="4"/>
+    </row>
+    <row r="676" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C676" s="4"/>
+    </row>
+    <row r="677" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C677" s="4"/>
+    </row>
+    <row r="678" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C678" s="4"/>
+    </row>
+    <row r="679" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C679" s="4"/>
+    </row>
+    <row r="680" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C680" s="4"/>
+    </row>
+    <row r="681" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C681" s="4"/>
+    </row>
+    <row r="682" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C682" s="4"/>
+    </row>
+    <row r="683" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C683" s="4"/>
+    </row>
+    <row r="684" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C684" s="4"/>
+    </row>
+    <row r="685" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C685" s="4"/>
+    </row>
+    <row r="686" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C686" s="4"/>
+    </row>
+    <row r="687" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C687" s="4"/>
+    </row>
+    <row r="688" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C688" s="4"/>
+    </row>
+    <row r="689" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C689" s="4"/>
+    </row>
+    <row r="690" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C690" s="4"/>
+    </row>
+    <row r="691" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C691" s="4"/>
+    </row>
+    <row r="692" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C692" s="4"/>
+    </row>
+    <row r="693" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C693" s="4"/>
+    </row>
+    <row r="694" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C694" s="4"/>
+    </row>
+    <row r="695" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C695" s="4"/>
+    </row>
+    <row r="696" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C696" s="4"/>
+    </row>
+    <row r="697" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C697" s="4"/>
+    </row>
+    <row r="698" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C698" s="4"/>
+    </row>
+    <row r="699" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C699" s="4"/>
+    </row>
+    <row r="700" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C700" s="4"/>
+    </row>
+    <row r="701" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C701" s="4"/>
+    </row>
+    <row r="702" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C702" s="4"/>
+    </row>
+    <row r="703" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C703" s="4"/>
+    </row>
+    <row r="704" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C704" s="4"/>
+    </row>
+    <row r="705" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C705" s="4"/>
+    </row>
+    <row r="706" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C706" s="4"/>
+    </row>
+    <row r="707" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C707" s="4"/>
+    </row>
+    <row r="708" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C708" s="4"/>
+    </row>
+    <row r="709" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C709" s="4"/>
+    </row>
+    <row r="710" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C710" s="4"/>
+    </row>
+    <row r="711" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C711" s="4"/>
+    </row>
+    <row r="712" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C712" s="4"/>
+    </row>
+    <row r="713" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C713" s="4"/>
+    </row>
+    <row r="714" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C714" s="4"/>
+    </row>
+    <row r="715" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C715" s="4"/>
+    </row>
+    <row r="716" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C716" s="4"/>
+    </row>
+    <row r="717" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C717" s="4"/>
+    </row>
+    <row r="718" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C718" s="4"/>
+    </row>
+    <row r="719" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C719" s="4"/>
+    </row>
+    <row r="720" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C720" s="4"/>
+    </row>
+    <row r="721" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C721" s="4"/>
+    </row>
+    <row r="722" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C722" s="4"/>
+    </row>
+    <row r="723" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C723" s="4"/>
+    </row>
+    <row r="724" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C724" s="4"/>
+    </row>
+    <row r="725" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C725" s="4"/>
+    </row>
+    <row r="726" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C726" s="4"/>
+    </row>
+    <row r="727" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C727" s="4"/>
+    </row>
+    <row r="728" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C728" s="4"/>
+    </row>
+    <row r="729" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C729" s="4"/>
+    </row>
+    <row r="730" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C730" s="4"/>
+    </row>
+    <row r="731" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C731" s="4"/>
+    </row>
+    <row r="732" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C732" s="4"/>
+    </row>
+    <row r="733" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C733" s="4"/>
+    </row>
+    <row r="734" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C734" s="4"/>
+    </row>
+    <row r="735" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C735" s="4"/>
+    </row>
+    <row r="736" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C736" s="4"/>
+    </row>
+    <row r="737" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C737" s="4"/>
+    </row>
+    <row r="738" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C738" s="4"/>
+    </row>
+    <row r="739" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C739" s="4"/>
+    </row>
+    <row r="740" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C740" s="4"/>
+    </row>
+    <row r="741" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C741" s="4"/>
+    </row>
+    <row r="742" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C742" s="4"/>
+    </row>
+    <row r="743" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C743" s="4"/>
+    </row>
+    <row r="744" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C744" s="4"/>
+    </row>
+    <row r="745" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C745" s="4"/>
+    </row>
+    <row r="746" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C746" s="4"/>
+    </row>
+    <row r="747" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C747" s="4"/>
+    </row>
+    <row r="748" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C748" s="4"/>
+    </row>
+    <row r="749" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C749" s="4"/>
+    </row>
+    <row r="750" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C750" s="4"/>
+    </row>
+    <row r="751" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C751" s="4"/>
+    </row>
+    <row r="752" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C752" s="4"/>
+    </row>
+    <row r="753" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C753" s="4"/>
+    </row>
+    <row r="754" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C754" s="4"/>
+    </row>
+    <row r="755" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C755" s="4"/>
+    </row>
+    <row r="756" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C756" s="4"/>
+    </row>
+    <row r="757" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C757" s="4"/>
+    </row>
+    <row r="758" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C758" s="4"/>
+    </row>
+    <row r="759" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C759" s="4"/>
+    </row>
+    <row r="760" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C760" s="4"/>
+    </row>
+    <row r="761" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C761" s="4"/>
+    </row>
+    <row r="762" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C762" s="4"/>
+    </row>
+    <row r="763" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C763" s="4"/>
+    </row>
+    <row r="764" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C764" s="4"/>
+    </row>
+    <row r="765" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C765" s="4"/>
+    </row>
+    <row r="766" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C766" s="4"/>
+    </row>
+    <row r="767" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C767" s="4"/>
+    </row>
+    <row r="768" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C768" s="4"/>
+    </row>
+    <row r="769" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C769" s="4"/>
+    </row>
+    <row r="770" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C770" s="4"/>
+    </row>
+    <row r="771" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C771" s="4"/>
+    </row>
+    <row r="772" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C772" s="4"/>
+    </row>
+    <row r="773" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C773" s="4"/>
+    </row>
+    <row r="774" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C774" s="4"/>
+    </row>
+    <row r="775" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C775" s="4"/>
+    </row>
+    <row r="776" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C776" s="4"/>
+    </row>
+    <row r="777" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C777" s="4"/>
+    </row>
+    <row r="778" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C778" s="4"/>
+    </row>
+    <row r="779" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C779" s="4"/>
+    </row>
+    <row r="780" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C780" s="4"/>
+    </row>
+    <row r="781" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C781" s="4"/>
+    </row>
+    <row r="782" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C782" s="4"/>
+    </row>
+    <row r="783" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C783" s="4"/>
+    </row>
+    <row r="784" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C784" s="4"/>
+    </row>
+    <row r="785" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C785" s="4"/>
+    </row>
+    <row r="786" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C786" s="4"/>
+    </row>
+    <row r="787" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C787" s="4"/>
+    </row>
+    <row r="788" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C788" s="4"/>
+    </row>
+    <row r="789" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C789" s="4"/>
+    </row>
+    <row r="790" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C790" s="4"/>
+    </row>
+    <row r="791" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C791" s="4"/>
+    </row>
+    <row r="792" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C792" s="4"/>
+    </row>
+    <row r="793" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C793" s="4"/>
+    </row>
+    <row r="794" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C794" s="4"/>
+    </row>
+    <row r="795" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C795" s="4"/>
+    </row>
+    <row r="796" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C796" s="4"/>
+    </row>
+    <row r="797" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C797" s="4"/>
+    </row>
+    <row r="798" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C798" s="4"/>
+    </row>
+    <row r="799" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C799" s="4"/>
+    </row>
+    <row r="800" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C800" s="4"/>
+    </row>
+    <row r="801" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C801" s="4"/>
+    </row>
+    <row r="802" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C802" s="4"/>
+    </row>
+    <row r="803" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C803" s="4"/>
+    </row>
+    <row r="804" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C804" s="4"/>
+    </row>
+    <row r="805" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C805" s="4"/>
+    </row>
+    <row r="806" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C806" s="4"/>
+    </row>
+    <row r="807" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C807" s="4"/>
+    </row>
+    <row r="808" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C808" s="4"/>
+    </row>
+    <row r="809" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C809" s="4"/>
+    </row>
+    <row r="810" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C810" s="4"/>
+    </row>
+    <row r="811" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C811" s="4"/>
+    </row>
+    <row r="812" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C812" s="4"/>
+    </row>
+    <row r="813" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C813" s="4"/>
+    </row>
+    <row r="814" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C814" s="4"/>
+    </row>
+    <row r="815" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C815" s="4"/>
+    </row>
+    <row r="816" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C816" s="4"/>
+    </row>
+    <row r="817" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C817" s="4"/>
+    </row>
+    <row r="818" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C818" s="4"/>
+    </row>
+    <row r="819" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C819" s="4"/>
+    </row>
+    <row r="820" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C820" s="4"/>
+    </row>
+    <row r="821" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C821" s="4"/>
+    </row>
+    <row r="822" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C822" s="4"/>
+    </row>
+    <row r="823" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C823" s="4"/>
+    </row>
+    <row r="824" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C824" s="4"/>
+    </row>
+    <row r="825" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C825" s="4"/>
+    </row>
+    <row r="826" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C826" s="4"/>
+    </row>
+    <row r="827" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C827" s="4"/>
+    </row>
+    <row r="828" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C828" s="4"/>
+    </row>
+    <row r="829" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C829" s="4"/>
+    </row>
+    <row r="830" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C830" s="4"/>
+    </row>
+    <row r="831" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C831" s="4"/>
+    </row>
+    <row r="832" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C832" s="4"/>
+    </row>
+    <row r="833" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C833" s="4"/>
+    </row>
+    <row r="834" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C834" s="4"/>
+    </row>
+    <row r="835" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C835" s="4"/>
+    </row>
+    <row r="836" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C836" s="4"/>
+    </row>
+    <row r="837" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C837" s="4"/>
+    </row>
+    <row r="838" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C838" s="4"/>
+    </row>
+    <row r="839" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C839" s="4"/>
+    </row>
+    <row r="840" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C840" s="4"/>
+    </row>
+    <row r="841" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C841" s="4"/>
+    </row>
+    <row r="842" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C842" s="4"/>
+    </row>
+    <row r="843" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C843" s="4"/>
+    </row>
+    <row r="844" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C844" s="4"/>
+    </row>
+    <row r="845" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C845" s="4"/>
+    </row>
+    <row r="846" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C846" s="4"/>
+    </row>
+    <row r="847" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C847" s="4"/>
+    </row>
+    <row r="848" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C848" s="4"/>
+    </row>
+    <row r="849" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C849" s="4"/>
+    </row>
+    <row r="850" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C850" s="4"/>
+    </row>
+    <row r="851" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C851" s="4"/>
+    </row>
+    <row r="852" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C852" s="4"/>
+    </row>
+    <row r="853" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C853" s="4"/>
+    </row>
+    <row r="854" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C854" s="4"/>
+    </row>
+    <row r="855" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C855" s="4"/>
+    </row>
+    <row r="856" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C856" s="4"/>
+    </row>
+    <row r="857" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C857" s="4"/>
+    </row>
+    <row r="858" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C858" s="4"/>
+    </row>
+    <row r="859" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C859" s="4"/>
+    </row>
+    <row r="860" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C860" s="4"/>
+    </row>
+    <row r="861" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C861" s="4"/>
+    </row>
+    <row r="862" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C862" s="4"/>
+    </row>
+    <row r="863" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C863" s="4"/>
+    </row>
+    <row r="864" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C864" s="4"/>
+    </row>
+    <row r="865" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C865" s="4"/>
+    </row>
+    <row r="866" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C866" s="4"/>
+    </row>
+    <row r="867" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C867" s="4"/>
+    </row>
+    <row r="868" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C868" s="4"/>
+    </row>
+    <row r="869" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C869" s="4"/>
+    </row>
+    <row r="870" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C870" s="4"/>
+    </row>
+    <row r="871" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C871" s="4"/>
+    </row>
+    <row r="872" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C872" s="4"/>
+    </row>
+    <row r="873" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C873" s="4"/>
+    </row>
+    <row r="874" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C874" s="4"/>
+    </row>
+    <row r="875" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C875" s="4"/>
+    </row>
+    <row r="876" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C876" s="4"/>
+    </row>
+    <row r="877" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C877" s="4"/>
+    </row>
+    <row r="878" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C878" s="4"/>
+    </row>
+    <row r="879" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C879" s="4"/>
+    </row>
+    <row r="880" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C880" s="4"/>
+    </row>
+    <row r="881" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C881" s="4"/>
+    </row>
+    <row r="882" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C882" s="4"/>
+    </row>
+    <row r="883" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C883" s="4"/>
+    </row>
+    <row r="884" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C884" s="4"/>
+    </row>
+    <row r="885" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C885" s="4"/>
+    </row>
+    <row r="886" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C886" s="4"/>
+    </row>
+    <row r="887" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C887" s="4"/>
+    </row>
+    <row r="888" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C888" s="4"/>
+    </row>
+    <row r="889" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C889" s="4"/>
+    </row>
+    <row r="890" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C890" s="4"/>
+    </row>
+    <row r="891" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C891" s="4"/>
+    </row>
+    <row r="892" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C892" s="4"/>
+    </row>
+    <row r="893" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C893" s="4"/>
+    </row>
+    <row r="894" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C894" s="4"/>
+    </row>
+    <row r="895" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C895" s="4"/>
+    </row>
+    <row r="896" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C896" s="4"/>
+    </row>
+    <row r="897" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C897" s="4"/>
+    </row>
+    <row r="898" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C898" s="4"/>
+    </row>
+    <row r="899" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C899" s="4"/>
+    </row>
+    <row r="900" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C900" s="4"/>
+    </row>
+    <row r="901" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C901" s="4"/>
+    </row>
+    <row r="902" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C902" s="4"/>
+    </row>
+    <row r="903" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C903" s="4"/>
+    </row>
+    <row r="904" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C904" s="4"/>
+    </row>
+    <row r="905" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C905" s="4"/>
+    </row>
+    <row r="906" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C906" s="4"/>
+    </row>
+    <row r="907" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C907" s="4"/>
+    </row>
+    <row r="908" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C908" s="4"/>
+    </row>
+    <row r="909" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C909" s="4"/>
+    </row>
+    <row r="910" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C910" s="4"/>
+    </row>
+    <row r="911" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C911" s="4"/>
+    </row>
+    <row r="912" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C912" s="4"/>
+    </row>
+    <row r="913" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C913" s="4"/>
+    </row>
+    <row r="914" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C914" s="4"/>
+    </row>
+    <row r="915" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C915" s="4"/>
+    </row>
+    <row r="916" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C916" s="4"/>
+    </row>
+    <row r="917" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C917" s="4"/>
+    </row>
+    <row r="918" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C918" s="4"/>
+    </row>
+    <row r="919" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C919" s="4"/>
+    </row>
+    <row r="920" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C920" s="4"/>
+    </row>
+    <row r="921" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C921" s="4"/>
+    </row>
+    <row r="922" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C922" s="4"/>
+    </row>
+    <row r="923" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C923" s="4"/>
+    </row>
+    <row r="924" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C924" s="4"/>
+    </row>
+    <row r="925" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C925" s="4"/>
+    </row>
+    <row r="926" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C926" s="4"/>
+    </row>
+    <row r="927" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C927" s="4"/>
+    </row>
+    <row r="928" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C928" s="4"/>
+    </row>
+    <row r="929" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C929" s="4"/>
+    </row>
+    <row r="930" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C930" s="4"/>
+    </row>
+    <row r="931" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C931" s="4"/>
+    </row>
+    <row r="932" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C932" s="4"/>
+    </row>
+    <row r="933" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C933" s="4"/>
+    </row>
+    <row r="934" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C934" s="4"/>
+    </row>
+    <row r="935" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C935" s="4"/>
+    </row>
+    <row r="936" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C936" s="4"/>
+    </row>
+    <row r="937" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C937" s="4"/>
+    </row>
+    <row r="938" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C938" s="4"/>
+    </row>
+    <row r="939" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C939" s="4"/>
+    </row>
+    <row r="940" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C940" s="4"/>
+    </row>
+    <row r="941" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C941" s="4"/>
+    </row>
+    <row r="942" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C942" s="4"/>
+    </row>
+    <row r="943" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C943" s="4"/>
+    </row>
+    <row r="944" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C944" s="4"/>
+    </row>
+    <row r="945" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C945" s="4"/>
+    </row>
+    <row r="946" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C946" s="4"/>
+    </row>
+    <row r="947" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C947" s="4"/>
+    </row>
+    <row r="948" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C948" s="4"/>
+    </row>
+    <row r="949" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C949" s="4"/>
+    </row>
+    <row r="950" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C950" s="4"/>
+    </row>
+    <row r="951" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C951" s="4"/>
+    </row>
+    <row r="952" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C952" s="4"/>
+    </row>
+    <row r="953" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C953" s="4"/>
+    </row>
+    <row r="954" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C954" s="4"/>
+    </row>
+    <row r="955" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C955" s="4"/>
+    </row>
+    <row r="956" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C956" s="4"/>
+    </row>
+    <row r="957" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C957" s="4"/>
+    </row>
+    <row r="958" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C958" s="4"/>
+    </row>
+    <row r="959" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C959" s="4"/>
+    </row>
+    <row r="960" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C960" s="4"/>
+    </row>
+    <row r="961" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C961" s="4"/>
+    </row>
+    <row r="962" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C962" s="4"/>
+    </row>
+    <row r="963" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C963" s="4"/>
+    </row>
+    <row r="964" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C964" s="4"/>
+    </row>
+    <row r="965" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C965" s="4"/>
+    </row>
+    <row r="966" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C966" s="4"/>
+    </row>
+    <row r="967" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C967" s="4"/>
+    </row>
+    <row r="968" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C968" s="4"/>
+    </row>
+    <row r="969" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C969" s="4"/>
+    </row>
+    <row r="970" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C970" s="4"/>
+    </row>
+    <row r="971" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C971" s="4"/>
+    </row>
+    <row r="972" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C972" s="4"/>
+    </row>
+    <row r="973" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C973" s="4"/>
+    </row>
+    <row r="974" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C974" s="4"/>
+    </row>
+    <row r="975" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C975" s="4"/>
+    </row>
+    <row r="976" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C976" s="4"/>
+    </row>
+    <row r="977" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C977" s="4"/>
+    </row>
+    <row r="978" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C978" s="4"/>
+    </row>
+    <row r="979" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C979" s="4"/>
+    </row>
+    <row r="980" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C980" s="4"/>
+    </row>
+    <row r="981" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C981" s="4"/>
+    </row>
+    <row r="982" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C982" s="4"/>
+    </row>
+    <row r="983" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C983" s="4"/>
+    </row>
+    <row r="984" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C984" s="4"/>
+    </row>
+    <row r="985" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C985" s="4"/>
+    </row>
+    <row r="986" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C986" s="4"/>
+    </row>
+    <row r="987" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C987" s="4"/>
+    </row>
+    <row r="988" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C988" s="4"/>
+    </row>
+    <row r="989" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C989" s="4"/>
+    </row>
+    <row r="990" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C990" s="4"/>
+    </row>
+    <row r="991" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C991" s="4"/>
+    </row>
+    <row r="992" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C992" s="4"/>
+    </row>
+    <row r="993" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C993" s="4"/>
+    </row>
+    <row r="994" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C994" s="4"/>
+    </row>
+    <row r="995" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C995" s="4"/>
+    </row>
+    <row r="996" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C996" s="4"/>
+    </row>
+    <row r="997" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C997" s="4"/>
+    </row>
+    <row r="998" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C998" s="4"/>
+    </row>
+    <row r="999" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C999" s="4"/>
+    </row>
+    <row r="1000" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C1000" s="4"/>
+    </row>
+    <row r="1001" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="C1001" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{DBCBD396-F25F-F44A-ACA4-D6C5F048A972}">
+      <formula1>"Иванов Иван Иванович,Петрв Петр Петрович,--"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -332,150 +5578,150 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>45292</v>
+        <v>44927</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>45293</v>
+        <v>44928</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>45294</v>
+        <v>44929</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>45295</v>
+        <v>44930</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>45296</v>
+        <v>44931</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>45297</v>
+        <v>44932</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>45298</v>
+        <v>44933</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>45299</v>
+        <v>44934</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>45300</v>
+        <v>44935</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>45301</v>
+        <v>44936</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>45302</v>
+        <v>44937</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>45303</v>
+        <v>44938</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>45304</v>
+        <v>44939</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>45305</v>
+        <v>44940</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>45306</v>
+        <v>44941</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>45307</v>
+        <v>44942</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>8</v>
@@ -483,19 +5729,19 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>45308</v>
+        <v>44943</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>45309</v>
+        <v>44944</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
         <v>9.5</v>
@@ -503,18 +5749,18 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>45310</v>
+        <v>44945</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>45311</v>
+        <v>44946</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
@@ -525,28 +5771,28 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>45312</v>
+        <v>44947</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>45313</v>
+        <v>44948</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>45314</v>
+        <v>44949</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -554,7 +5800,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>45315</v>
+        <v>44950</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
@@ -565,19 +5811,19 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>45316</v>
+        <v>44951</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>45317</v>
+        <v>44952</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
         <v>8</v>
@@ -585,16 +5831,16 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>45318</v>
+        <v>44953</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>45319</v>
+        <v>44954</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
@@ -603,28 +5849,28 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
-        <v>45320</v>
+        <v>44955</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>45321</v>
+        <v>44956</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
-        <v>45322</v>
+        <v>44957</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
         <v>7</v>
@@ -632,7 +5878,7 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
-        <v>45323</v>
+        <v>44958</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>6</v>
@@ -641,34 +5887,34 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
-        <v>45324</v>
+        <v>44959</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
-        <v>45325</v>
+        <v>44960</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
-        <v>45326</v>
+        <v>44961</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
-        <v>45327</v>
+        <v>44962</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
@@ -677,34 +5923,34 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
-        <v>45328</v>
+        <v>44963</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
-        <v>45329</v>
+        <v>44964</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
-        <v>45330</v>
+        <v>44965</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
-        <v>45331</v>
+        <v>44966</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>6</v>
@@ -713,34 +5959,34 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
-        <v>45332</v>
+        <v>44967</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
-        <v>45333</v>
+        <v>44968</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
-        <v>45334</v>
+        <v>44969</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>45335</v>
+        <v>44970</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>6</v>
@@ -749,34 +5995,34 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
-        <v>45336</v>
+        <v>44971</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>45337</v>
+        <v>44972</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>45338</v>
+        <v>44973</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>45339</v>
+        <v>44974</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>6</v>
@@ -785,34 +6031,34 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>45340</v>
+        <v>44975</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
-        <v>45341</v>
+        <v>44976</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
-        <v>45342</v>
+        <v>44977</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
-        <v>45343</v>
+        <v>44978</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>6</v>
@@ -821,34 +6067,34 @@
     </row>
     <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
-        <v>45344</v>
+        <v>44979</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
-        <v>45345</v>
+        <v>44980</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
-        <v>45346</v>
+        <v>44981</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
-        <v>45347</v>
+        <v>44982</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>6</v>
@@ -857,34 +6103,34 @@
     </row>
     <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
-        <v>45348</v>
+        <v>44983</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
-        <v>45349</v>
+        <v>44984</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
-        <v>45350</v>
+        <v>44985</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
-        <v>45351</v>
+        <v>44986</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>6</v>
@@ -893,34 +6139,34 @@
     </row>
     <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
-        <v>45352</v>
+        <v>44987</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
-        <v>45353</v>
+        <v>44988</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
-        <v>45354</v>
+        <v>44989</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C64" s="4"/>
     </row>
     <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
-        <v>45355</v>
+        <v>44990</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>6</v>
@@ -929,34 +6175,34 @@
     </row>
     <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
-        <v>45356</v>
+        <v>44991</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" s="4"/>
     </row>
     <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
-        <v>45357</v>
+        <v>44992</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
-        <v>45358</v>
+        <v>44993</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
-        <v>45359</v>
+        <v>44994</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>6</v>
@@ -965,34 +6211,34 @@
     </row>
     <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
-        <v>45360</v>
+        <v>44995</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
-        <v>45361</v>
+        <v>44996</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
-        <v>45362</v>
+        <v>44997</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
-        <v>45363</v>
+        <v>44998</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>6</v>
@@ -1001,34 +6247,34 @@
     </row>
     <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
-        <v>45364</v>
+        <v>44999</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" s="4"/>
     </row>
     <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
-        <v>45365</v>
+        <v>45000</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
-        <v>45366</v>
+        <v>45001</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C76" s="4"/>
     </row>
     <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
-        <v>45367</v>
+        <v>45002</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>6</v>
@@ -1037,34 +6283,34 @@
     </row>
     <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
-        <v>45368</v>
+        <v>45003</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" s="4"/>
     </row>
     <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
-        <v>45369</v>
+        <v>45004</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4"/>
     </row>
     <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
-        <v>45370</v>
+        <v>45005</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4"/>
     </row>
     <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
-        <v>45371</v>
+        <v>45006</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>6</v>
@@ -1073,2034 +6319,2020 @@
     </row>
     <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
-        <v>45372</v>
+        <v>45007</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" s="4"/>
     </row>
     <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
-        <v>45373</v>
+        <v>45008</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C83" s="4"/>
     </row>
     <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
-        <v>45374</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>45009</v>
+      </c>
+      <c r="B84" s="5"/>
       <c r="C84" s="4"/>
     </row>
     <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
-        <v>45375</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="B85" s="5"/>
       <c r="C85" s="4"/>
     </row>
     <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
-        <v>45376</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>45011</v>
+      </c>
+      <c r="B86" s="5"/>
       <c r="C86" s="4"/>
     </row>
     <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
-        <v>45377</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>45012</v>
+      </c>
+      <c r="B87" s="5"/>
       <c r="C87" s="4"/>
     </row>
     <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
-        <v>45378</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>45013</v>
+      </c>
+      <c r="B88" s="5"/>
       <c r="C88" s="4"/>
     </row>
     <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
-        <v>45379</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>45014</v>
+      </c>
+      <c r="B89" s="5"/>
       <c r="C89" s="4"/>
     </row>
     <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
-        <v>45380</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>45015</v>
+      </c>
+      <c r="B90" s="5"/>
       <c r="C90" s="4"/>
     </row>
     <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
-        <v>45381</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>45016</v>
+      </c>
+      <c r="B91" s="5"/>
       <c r="C91" s="4"/>
     </row>
     <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
-        <v>45382</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B92" s="5"/>
       <c r="C92" s="4"/>
     </row>
     <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
-        <v>45383</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>45018</v>
+      </c>
+      <c r="B93" s="5"/>
       <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
-        <v>45384</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>45019</v>
+      </c>
+      <c r="B94" s="5"/>
       <c r="C94" s="4"/>
     </row>
     <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
-        <v>45385</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>45020</v>
+      </c>
+      <c r="B95" s="5"/>
       <c r="C95" s="4"/>
     </row>
     <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
-        <v>45386</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>45021</v>
+      </c>
+      <c r="B96" s="5"/>
       <c r="C96" s="4"/>
     </row>
     <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
-        <v>45387</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>45022</v>
+      </c>
+      <c r="B97" s="5"/>
       <c r="C97" s="4"/>
     </row>
     <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
-        <v>45388</v>
+        <v>45023</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
-        <v>45389</v>
+        <v>45024</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="4"/>
     </row>
     <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
-        <v>45390</v>
+        <v>45025</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="4"/>
     </row>
     <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
-        <v>45391</v>
+        <v>45026</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="4"/>
     </row>
     <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
-        <v>45392</v>
+        <v>45027</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="4"/>
     </row>
     <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
-        <v>45393</v>
+        <v>45028</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="4"/>
     </row>
     <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
-        <v>45394</v>
+        <v>45029</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="4"/>
     </row>
     <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
-        <v>45395</v>
+        <v>45030</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="4"/>
     </row>
     <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
-        <v>45396</v>
+        <v>45031</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="4"/>
     </row>
     <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
-        <v>45397</v>
+        <v>45032</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
-        <v>45398</v>
+        <v>45033</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
-        <v>45399</v>
+        <v>45034</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
-        <v>45400</v>
+        <v>45035</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="4"/>
     </row>
     <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
-        <v>45401</v>
+        <v>45036</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="4"/>
     </row>
     <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
-        <v>45402</v>
+        <v>45037</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="4"/>
     </row>
     <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
-        <v>45403</v>
+        <v>45038</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="4"/>
     </row>
     <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
-        <v>45404</v>
+        <v>45039</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="4"/>
     </row>
     <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
-        <v>45405</v>
+        <v>45040</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="4"/>
     </row>
     <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
-        <v>45406</v>
+        <v>45041</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="4"/>
     </row>
     <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
-        <v>45407</v>
+        <v>45042</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="4"/>
     </row>
     <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
-        <v>45408</v>
+        <v>45043</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="4"/>
     </row>
     <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
-        <v>45409</v>
+        <v>45044</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="4"/>
     </row>
     <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
-        <v>45410</v>
+        <v>45045</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="4"/>
     </row>
     <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
-        <v>45411</v>
+        <v>45046</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="4"/>
     </row>
     <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
-        <v>45412</v>
+        <v>45047</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="4"/>
     </row>
     <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
-        <v>45413</v>
+        <v>45048</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="4"/>
     </row>
     <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
-        <v>45414</v>
+        <v>45049</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="4"/>
     </row>
     <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
-        <v>45415</v>
+        <v>45050</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="4"/>
     </row>
     <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
-        <v>45416</v>
+        <v>45051</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="4"/>
     </row>
     <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
-        <v>45417</v>
+        <v>45052</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="4"/>
     </row>
     <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
-        <v>45418</v>
+        <v>45053</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="4"/>
     </row>
     <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
-        <v>45419</v>
+        <v>45054</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="4"/>
     </row>
     <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
-        <v>45420</v>
+        <v>45055</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="4"/>
     </row>
     <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
-        <v>45421</v>
+        <v>45056</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
-        <v>45422</v>
+        <v>45057</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
-        <v>45423</v>
+        <v>45058</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
-        <v>45424</v>
+        <v>45059</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
-        <v>45425</v>
+        <v>45060</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
-        <v>45426</v>
+        <v>45061</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
-        <v>45427</v>
+        <v>45062</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
-        <v>45428</v>
+        <v>45063</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="4"/>
     </row>
     <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
-        <v>45429</v>
+        <v>45064</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="4"/>
     </row>
     <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
-        <v>45430</v>
+        <v>45065</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="4"/>
     </row>
     <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
-        <v>45431</v>
+        <v>45066</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="4"/>
     </row>
     <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
-        <v>45432</v>
+        <v>45067</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="4"/>
     </row>
     <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
-        <v>45433</v>
+        <v>45068</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="4"/>
     </row>
     <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
-        <v>45434</v>
+        <v>45069</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="4"/>
     </row>
     <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
-        <v>45435</v>
+        <v>45070</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="4"/>
     </row>
     <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
-        <v>45436</v>
+        <v>45071</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="4"/>
     </row>
     <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
-        <v>45437</v>
+        <v>45072</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="4"/>
     </row>
     <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
-        <v>45438</v>
+        <v>45073</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="4"/>
     </row>
     <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
-        <v>45439</v>
+        <v>45074</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="4"/>
     </row>
     <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
-        <v>45440</v>
+        <v>45075</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="4"/>
     </row>
     <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
-        <v>45441</v>
+        <v>45076</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="4"/>
     </row>
     <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
-        <v>45442</v>
+        <v>45077</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="4"/>
     </row>
     <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
-        <v>45443</v>
+        <v>45078</v>
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="4"/>
     </row>
     <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
-        <v>45444</v>
+        <v>45079</v>
       </c>
       <c r="B154" s="5"/>
       <c r="C154" s="4"/>
     </row>
     <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
-        <v>45445</v>
+        <v>45080</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="4"/>
     </row>
     <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
-        <v>45446</v>
+        <v>45081</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="4"/>
     </row>
     <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
-        <v>45447</v>
+        <v>45082</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="4"/>
     </row>
     <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
-        <v>45448</v>
+        <v>45083</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="4"/>
     </row>
     <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
-        <v>45449</v>
+        <v>45084</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="4"/>
     </row>
     <row r="160" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
-        <v>45450</v>
+        <v>45085</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="4"/>
     </row>
     <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
-        <v>45451</v>
+        <v>45086</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="4"/>
     </row>
     <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
-        <v>45452</v>
+        <v>45087</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="4"/>
     </row>
     <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
-        <v>45453</v>
+        <v>45088</v>
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="4"/>
     </row>
     <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
-        <v>45454</v>
+        <v>45089</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="4"/>
     </row>
     <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
-        <v>45455</v>
+        <v>45090</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="4"/>
     </row>
     <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
-        <v>45456</v>
+        <v>45091</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="4"/>
     </row>
     <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
-        <v>45457</v>
+        <v>45092</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="4"/>
     </row>
     <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
-        <v>45458</v>
+        <v>45093</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="4"/>
     </row>
     <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
-        <v>45459</v>
+        <v>45094</v>
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="4"/>
     </row>
     <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
-        <v>45460</v>
+        <v>45095</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="4"/>
     </row>
     <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
-        <v>45461</v>
+        <v>45096</v>
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="4"/>
     </row>
     <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
-        <v>45462</v>
+        <v>45097</v>
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="4"/>
     </row>
     <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
-        <v>45463</v>
+        <v>45098</v>
       </c>
       <c r="B173" s="5"/>
       <c r="C173" s="4"/>
     </row>
     <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
-        <v>45464</v>
+        <v>45099</v>
       </c>
       <c r="B174" s="5"/>
       <c r="C174" s="4"/>
     </row>
     <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
-        <v>45465</v>
+        <v>45100</v>
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="4"/>
     </row>
     <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
-        <v>45466</v>
+        <v>45101</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="4"/>
     </row>
     <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
-        <v>45467</v>
+        <v>45102</v>
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="4"/>
     </row>
     <row r="178" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
-        <v>45468</v>
+        <v>45103</v>
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="4"/>
     </row>
     <row r="179" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="3">
-        <v>45469</v>
+        <v>45104</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="4"/>
     </row>
     <row r="180" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="3">
-        <v>45470</v>
+        <v>45105</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="4"/>
     </row>
     <row r="181" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
-        <v>45471</v>
+        <v>45106</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="4"/>
     </row>
     <row r="182" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
-        <v>45472</v>
+        <v>45107</v>
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="4"/>
     </row>
     <row r="183" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="3">
-        <v>45473</v>
+        <v>45108</v>
       </c>
       <c r="B183" s="5"/>
       <c r="C183" s="4"/>
     </row>
     <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="3">
-        <v>45474</v>
+        <v>45109</v>
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="4"/>
     </row>
     <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="3">
-        <v>45475</v>
+        <v>45110</v>
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="4"/>
     </row>
     <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
-        <v>45476</v>
+        <v>45111</v>
       </c>
       <c r="B186" s="5"/>
       <c r="C186" s="4"/>
     </row>
     <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
-        <v>45477</v>
+        <v>45112</v>
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="4"/>
     </row>
     <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
-        <v>45478</v>
+        <v>45113</v>
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="4"/>
     </row>
     <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
-        <v>45479</v>
+        <v>45114</v>
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="4"/>
     </row>
     <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
-        <v>45480</v>
+        <v>45115</v>
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="4"/>
     </row>
     <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="3">
-        <v>45481</v>
+        <v>45116</v>
       </c>
       <c r="B191" s="5"/>
       <c r="C191" s="4"/>
     </row>
     <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="3">
-        <v>45482</v>
+        <v>45117</v>
       </c>
       <c r="B192" s="5"/>
       <c r="C192" s="4"/>
     </row>
     <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
-        <v>45483</v>
+        <v>45118</v>
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="4"/>
     </row>
     <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
-        <v>45484</v>
+        <v>45119</v>
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="4"/>
     </row>
     <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
-        <v>45485</v>
+        <v>45120</v>
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="4"/>
     </row>
     <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
-        <v>45486</v>
+        <v>45121</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="4"/>
     </row>
     <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
-        <v>45487</v>
+        <v>45122</v>
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="4"/>
     </row>
     <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
-        <v>45488</v>
+        <v>45123</v>
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="4"/>
     </row>
     <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
-        <v>45489</v>
+        <v>45124</v>
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="4"/>
     </row>
     <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
-        <v>45490</v>
+        <v>45125</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="4"/>
     </row>
     <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
-        <v>45491</v>
+        <v>45126</v>
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="4"/>
     </row>
     <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
-        <v>45492</v>
+        <v>45127</v>
       </c>
       <c r="B202" s="5"/>
       <c r="C202" s="4"/>
     </row>
     <row r="203" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
-        <v>45493</v>
+        <v>45128</v>
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="4"/>
     </row>
     <row r="204" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
-        <v>45494</v>
+        <v>45129</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="4"/>
     </row>
     <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="3">
-        <v>45495</v>
+        <v>45130</v>
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="4"/>
     </row>
     <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="3">
-        <v>45496</v>
+        <v>45131</v>
       </c>
       <c r="B206" s="5"/>
       <c r="C206" s="4"/>
     </row>
     <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="3">
-        <v>45497</v>
+        <v>45132</v>
       </c>
       <c r="B207" s="5"/>
       <c r="C207" s="4"/>
     </row>
     <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="3">
-        <v>45498</v>
+        <v>45133</v>
       </c>
       <c r="B208" s="5"/>
       <c r="C208" s="4"/>
     </row>
     <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="3">
-        <v>45499</v>
+        <v>45134</v>
       </c>
       <c r="B209" s="5"/>
       <c r="C209" s="4"/>
     </row>
     <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
-        <v>45500</v>
+        <v>45135</v>
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="4"/>
     </row>
     <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="3">
-        <v>45501</v>
+        <v>45136</v>
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="4"/>
     </row>
     <row r="212" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="3">
-        <v>45502</v>
+        <v>45137</v>
       </c>
       <c r="B212" s="5"/>
       <c r="C212" s="4"/>
     </row>
     <row r="213" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="3">
-        <v>45503</v>
+        <v>45138</v>
       </c>
       <c r="B213" s="5"/>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
-        <v>45504</v>
+        <v>45139</v>
       </c>
       <c r="B214" s="5"/>
       <c r="C214" s="4"/>
     </row>
     <row r="215" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="3">
-        <v>45505</v>
+        <v>45140</v>
       </c>
       <c r="B215" s="5"/>
       <c r="C215" s="4"/>
     </row>
     <row r="216" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="3">
-        <v>45506</v>
+        <v>45141</v>
       </c>
       <c r="B216" s="5"/>
       <c r="C216" s="4"/>
     </row>
     <row r="217" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="3">
-        <v>45507</v>
+        <v>45142</v>
       </c>
       <c r="B217" s="5"/>
       <c r="C217" s="4"/>
     </row>
     <row r="218" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
-        <v>45508</v>
+        <v>45143</v>
       </c>
       <c r="B218" s="5"/>
       <c r="C218" s="4"/>
     </row>
     <row r="219" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="3">
-        <v>45509</v>
+        <v>45144</v>
       </c>
       <c r="B219" s="5"/>
       <c r="C219" s="4"/>
     </row>
     <row r="220" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="3">
-        <v>45510</v>
+        <v>45145</v>
       </c>
       <c r="B220" s="5"/>
       <c r="C220" s="4"/>
     </row>
     <row r="221" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="3">
-        <v>45511</v>
+        <v>45146</v>
       </c>
       <c r="B221" s="5"/>
       <c r="C221" s="4"/>
     </row>
     <row r="222" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
-        <v>45512</v>
+        <v>45147</v>
       </c>
       <c r="B222" s="5"/>
       <c r="C222" s="4"/>
     </row>
     <row r="223" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="3">
-        <v>45513</v>
+        <v>45148</v>
       </c>
       <c r="B223" s="5"/>
       <c r="C223" s="4"/>
     </row>
     <row r="224" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="3">
-        <v>45514</v>
+        <v>45149</v>
       </c>
       <c r="B224" s="5"/>
       <c r="C224" s="4"/>
     </row>
     <row r="225" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="3">
-        <v>45515</v>
+        <v>45150</v>
       </c>
       <c r="B225" s="5"/>
       <c r="C225" s="4"/>
     </row>
     <row r="226" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="3">
-        <v>45516</v>
+        <v>45151</v>
       </c>
       <c r="B226" s="5"/>
       <c r="C226" s="4"/>
     </row>
     <row r="227" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="3">
-        <v>45517</v>
+        <v>45152</v>
       </c>
       <c r="B227" s="5"/>
       <c r="C227" s="4"/>
     </row>
     <row r="228" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="3">
-        <v>45518</v>
+        <v>45153</v>
       </c>
       <c r="B228" s="5"/>
       <c r="C228" s="4"/>
     </row>
     <row r="229" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="3">
-        <v>45519</v>
+        <v>45154</v>
       </c>
       <c r="B229" s="5"/>
       <c r="C229" s="4"/>
     </row>
     <row r="230" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="3">
-        <v>45520</v>
+        <v>45155</v>
       </c>
       <c r="B230" s="5"/>
       <c r="C230" s="4"/>
     </row>
     <row r="231" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="3">
-        <v>45521</v>
+        <v>45156</v>
       </c>
       <c r="B231" s="5"/>
       <c r="C231" s="4"/>
     </row>
     <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="3">
-        <v>45522</v>
+        <v>45157</v>
       </c>
       <c r="B232" s="5"/>
       <c r="C232" s="4"/>
     </row>
     <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="3">
-        <v>45523</v>
+        <v>45158</v>
       </c>
       <c r="B233" s="5"/>
       <c r="C233" s="4"/>
     </row>
     <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="3">
-        <v>45524</v>
+        <v>45159</v>
       </c>
       <c r="B234" s="5"/>
       <c r="C234" s="4"/>
     </row>
     <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="3">
-        <v>45525</v>
+        <v>45160</v>
       </c>
       <c r="B235" s="5"/>
       <c r="C235" s="4"/>
     </row>
     <row r="236" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="3">
-        <v>45526</v>
+        <v>45161</v>
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="4"/>
     </row>
     <row r="237" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="3">
-        <v>45527</v>
+        <v>45162</v>
       </c>
       <c r="B237" s="5"/>
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="3">
-        <v>45528</v>
+        <v>45163</v>
       </c>
       <c r="B238" s="5"/>
       <c r="C238" s="4"/>
     </row>
     <row r="239" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="3">
-        <v>45529</v>
+        <v>45164</v>
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="4"/>
     </row>
     <row r="240" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="3">
-        <v>45530</v>
+        <v>45165</v>
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="4"/>
     </row>
     <row r="241" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="3">
-        <v>45531</v>
+        <v>45166</v>
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="4"/>
     </row>
     <row r="242" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="3">
-        <v>45532</v>
+        <v>45167</v>
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="4"/>
     </row>
     <row r="243" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="3">
-        <v>45533</v>
+        <v>45168</v>
       </c>
       <c r="B243" s="5"/>
       <c r="C243" s="4"/>
     </row>
     <row r="244" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="3">
-        <v>45534</v>
+        <v>45169</v>
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="4"/>
     </row>
     <row r="245" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="3">
-        <v>45535</v>
+        <v>45170</v>
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="4"/>
     </row>
     <row r="246" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="3">
-        <v>45536</v>
+        <v>45171</v>
       </c>
       <c r="B246" s="5"/>
       <c r="C246" s="4"/>
     </row>
     <row r="247" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="3">
-        <v>45537</v>
+        <v>45172</v>
       </c>
       <c r="B247" s="5"/>
       <c r="C247" s="4"/>
     </row>
     <row r="248" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="3">
-        <v>45538</v>
+        <v>45173</v>
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="4"/>
     </row>
     <row r="249" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="3">
-        <v>45539</v>
+        <v>45174</v>
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="4"/>
     </row>
     <row r="250" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="3">
-        <v>45540</v>
+        <v>45175</v>
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="4"/>
     </row>
     <row r="251" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="3">
-        <v>45541</v>
+        <v>45176</v>
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="4"/>
     </row>
     <row r="252" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="3">
-        <v>45542</v>
+        <v>45177</v>
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="4"/>
     </row>
     <row r="253" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="3">
-        <v>45543</v>
+        <v>45178</v>
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="4"/>
     </row>
     <row r="254" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="3">
-        <v>45544</v>
+        <v>45179</v>
       </c>
       <c r="B254" s="5"/>
       <c r="C254" s="4"/>
     </row>
     <row r="255" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="3">
-        <v>45545</v>
+        <v>45180</v>
       </c>
       <c r="B255" s="5"/>
       <c r="C255" s="4"/>
     </row>
     <row r="256" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="3">
-        <v>45546</v>
+        <v>45181</v>
       </c>
       <c r="B256" s="5"/>
       <c r="C256" s="4"/>
     </row>
     <row r="257" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="3">
-        <v>45547</v>
+        <v>45182</v>
       </c>
       <c r="B257" s="5"/>
       <c r="C257" s="4"/>
     </row>
     <row r="258" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="3">
-        <v>45548</v>
+        <v>45183</v>
       </c>
       <c r="B258" s="5"/>
       <c r="C258" s="4"/>
     </row>
     <row r="259" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="3">
-        <v>45549</v>
+        <v>45184</v>
       </c>
       <c r="B259" s="5"/>
       <c r="C259" s="4"/>
     </row>
     <row r="260" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="3">
-        <v>45550</v>
+        <v>45185</v>
       </c>
       <c r="B260" s="5"/>
       <c r="C260" s="4"/>
     </row>
     <row r="261" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="3">
-        <v>45551</v>
+        <v>45186</v>
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="4"/>
     </row>
     <row r="262" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="3">
-        <v>45552</v>
+        <v>45187</v>
       </c>
       <c r="B262" s="5"/>
       <c r="C262" s="4"/>
     </row>
     <row r="263" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="3">
-        <v>45553</v>
+        <v>45188</v>
       </c>
       <c r="B263" s="5"/>
       <c r="C263" s="4"/>
     </row>
     <row r="264" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="3">
-        <v>45554</v>
+        <v>45189</v>
       </c>
       <c r="B264" s="5"/>
       <c r="C264" s="4"/>
     </row>
     <row r="265" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="3">
-        <v>45555</v>
+        <v>45190</v>
       </c>
       <c r="B265" s="5"/>
       <c r="C265" s="4"/>
     </row>
     <row r="266" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="3">
-        <v>45556</v>
+        <v>45191</v>
       </c>
       <c r="B266" s="5"/>
       <c r="C266" s="4"/>
     </row>
     <row r="267" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="3">
-        <v>45557</v>
+        <v>45192</v>
       </c>
       <c r="B267" s="5"/>
       <c r="C267" s="4"/>
     </row>
     <row r="268" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="3">
-        <v>45558</v>
+        <v>45193</v>
       </c>
       <c r="B268" s="5"/>
       <c r="C268" s="4"/>
     </row>
     <row r="269" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="3">
-        <v>45559</v>
+        <v>45194</v>
       </c>
       <c r="B269" s="5"/>
       <c r="C269" s="4"/>
     </row>
     <row r="270" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="3">
-        <v>45560</v>
+        <v>45195</v>
       </c>
       <c r="B270" s="5"/>
       <c r="C270" s="4"/>
     </row>
     <row r="271" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="3">
-        <v>45561</v>
+        <v>45196</v>
       </c>
       <c r="B271" s="5"/>
       <c r="C271" s="4"/>
     </row>
     <row r="272" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
-        <v>45562</v>
+        <v>45197</v>
       </c>
       <c r="B272" s="5"/>
       <c r="C272" s="4"/>
     </row>
     <row r="273" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="3">
-        <v>45563</v>
+        <v>45198</v>
       </c>
       <c r="B273" s="5"/>
       <c r="C273" s="4"/>
     </row>
     <row r="274" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="3">
-        <v>45564</v>
+        <v>45199</v>
       </c>
       <c r="B274" s="5"/>
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="3">
-        <v>45565</v>
+        <v>45200</v>
       </c>
       <c r="B275" s="5"/>
       <c r="C275" s="4"/>
     </row>
     <row r="276" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="3">
-        <v>45566</v>
+        <v>45201</v>
       </c>
       <c r="B276" s="5"/>
       <c r="C276" s="4"/>
     </row>
     <row r="277" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="3">
-        <v>45567</v>
+        <v>45202</v>
       </c>
       <c r="B277" s="5"/>
       <c r="C277" s="4"/>
     </row>
     <row r="278" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="3">
-        <v>45568</v>
+        <v>45203</v>
       </c>
       <c r="B278" s="5"/>
       <c r="C278" s="4"/>
     </row>
     <row r="279" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="3">
-        <v>45569</v>
+        <v>45204</v>
       </c>
       <c r="B279" s="5"/>
       <c r="C279" s="4"/>
     </row>
     <row r="280" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="3">
-        <v>45570</v>
+        <v>45205</v>
       </c>
       <c r="B280" s="5"/>
       <c r="C280" s="4"/>
     </row>
     <row r="281" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="3">
-        <v>45571</v>
+        <v>45206</v>
       </c>
       <c r="B281" s="5"/>
       <c r="C281" s="4"/>
     </row>
     <row r="282" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="3">
-        <v>45572</v>
+        <v>45207</v>
       </c>
       <c r="B282" s="5"/>
       <c r="C282" s="4"/>
     </row>
     <row r="283" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="3">
-        <v>45573</v>
+        <v>45208</v>
       </c>
       <c r="B283" s="5"/>
       <c r="C283" s="4"/>
     </row>
     <row r="284" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="3">
-        <v>45574</v>
+        <v>45209</v>
       </c>
       <c r="B284" s="5"/>
       <c r="C284" s="4"/>
     </row>
     <row r="285" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="3">
-        <v>45575</v>
+        <v>45210</v>
       </c>
       <c r="B285" s="5"/>
       <c r="C285" s="4"/>
     </row>
     <row r="286" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="3">
-        <v>45576</v>
+        <v>45211</v>
       </c>
       <c r="B286" s="5"/>
       <c r="C286" s="4"/>
     </row>
     <row r="287" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="3">
-        <v>45577</v>
+        <v>45212</v>
       </c>
       <c r="B287" s="5"/>
       <c r="C287" s="4"/>
     </row>
     <row r="288" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="3">
-        <v>45578</v>
+        <v>45213</v>
       </c>
       <c r="B288" s="5"/>
       <c r="C288" s="4"/>
     </row>
     <row r="289" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="3">
-        <v>45579</v>
+        <v>45214</v>
       </c>
       <c r="B289" s="5"/>
       <c r="C289" s="4"/>
     </row>
     <row r="290" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="3">
-        <v>45580</v>
+        <v>45215</v>
       </c>
       <c r="B290" s="5"/>
       <c r="C290" s="4"/>
     </row>
     <row r="291" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="3">
-        <v>45581</v>
+        <v>45216</v>
       </c>
       <c r="B291" s="5"/>
       <c r="C291" s="4"/>
     </row>
     <row r="292" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="3">
-        <v>45582</v>
+        <v>45217</v>
       </c>
       <c r="B292" s="5"/>
       <c r="C292" s="4"/>
     </row>
     <row r="293" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="3">
-        <v>45583</v>
+        <v>45218</v>
       </c>
       <c r="B293" s="5"/>
       <c r="C293" s="4"/>
     </row>
     <row r="294" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="3">
-        <v>45584</v>
+        <v>45219</v>
       </c>
       <c r="B294" s="5"/>
       <c r="C294" s="4"/>
     </row>
     <row r="295" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="3">
-        <v>45585</v>
+        <v>45220</v>
       </c>
       <c r="B295" s="5"/>
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="3">
-        <v>45586</v>
+        <v>45221</v>
       </c>
       <c r="B296" s="5"/>
       <c r="C296" s="4"/>
     </row>
     <row r="297" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="3">
-        <v>45587</v>
+        <v>45222</v>
       </c>
       <c r="B297" s="5"/>
       <c r="C297" s="4"/>
     </row>
     <row r="298" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="3">
-        <v>45588</v>
+        <v>45223</v>
       </c>
       <c r="B298" s="5"/>
       <c r="C298" s="4"/>
     </row>
     <row r="299" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="3">
-        <v>45589</v>
+        <v>45224</v>
       </c>
       <c r="B299" s="5"/>
       <c r="C299" s="4"/>
     </row>
     <row r="300" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="3">
-        <v>45590</v>
+        <v>45225</v>
       </c>
       <c r="B300" s="5"/>
       <c r="C300" s="4"/>
     </row>
     <row r="301" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="3">
-        <v>45591</v>
+        <v>45226</v>
       </c>
       <c r="B301" s="5"/>
       <c r="C301" s="4"/>
     </row>
     <row r="302" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="3">
-        <v>45592</v>
+        <v>45227</v>
       </c>
       <c r="B302" s="5"/>
       <c r="C302" s="4"/>
     </row>
     <row r="303" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="3">
-        <v>45593</v>
+        <v>45228</v>
       </c>
       <c r="B303" s="5"/>
       <c r="C303" s="4"/>
     </row>
     <row r="304" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="3">
-        <v>45594</v>
+        <v>45229</v>
       </c>
       <c r="B304" s="5"/>
       <c r="C304" s="4"/>
     </row>
     <row r="305" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="3">
-        <v>45595</v>
+        <v>45230</v>
       </c>
       <c r="B305" s="5"/>
       <c r="C305" s="4"/>
     </row>
     <row r="306" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="3">
-        <v>45596</v>
+        <v>45231</v>
       </c>
       <c r="B306" s="5"/>
       <c r="C306" s="4"/>
     </row>
     <row r="307" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="3">
-        <v>45597</v>
+        <v>45232</v>
       </c>
       <c r="B307" s="5"/>
       <c r="C307" s="4"/>
     </row>
     <row r="308" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="3">
-        <v>45598</v>
+        <v>45233</v>
       </c>
       <c r="B308" s="5"/>
       <c r="C308" s="4"/>
     </row>
     <row r="309" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="3">
-        <v>45599</v>
+        <v>45234</v>
       </c>
       <c r="B309" s="5"/>
       <c r="C309" s="4"/>
     </row>
     <row r="310" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="3">
-        <v>45600</v>
+        <v>45235</v>
       </c>
       <c r="B310" s="5"/>
       <c r="C310" s="4"/>
     </row>
     <row r="311" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="3">
-        <v>45601</v>
+        <v>45236</v>
       </c>
       <c r="B311" s="5"/>
       <c r="C311" s="4"/>
     </row>
     <row r="312" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="3">
-        <v>45602</v>
+        <v>45237</v>
       </c>
       <c r="B312" s="5"/>
       <c r="C312" s="4"/>
     </row>
     <row r="313" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="3">
-        <v>45603</v>
+        <v>45238</v>
       </c>
       <c r="B313" s="5"/>
       <c r="C313" s="4"/>
     </row>
     <row r="314" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="3">
-        <v>45604</v>
+        <v>45239</v>
       </c>
       <c r="B314" s="5"/>
       <c r="C314" s="4"/>
     </row>
     <row r="315" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="3">
-        <v>45605</v>
+        <v>45240</v>
       </c>
       <c r="B315" s="5"/>
       <c r="C315" s="4"/>
     </row>
     <row r="316" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="3">
-        <v>45606</v>
+        <v>45241</v>
       </c>
       <c r="B316" s="5"/>
       <c r="C316" s="4"/>
     </row>
     <row r="317" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="3">
-        <v>45607</v>
+        <v>45242</v>
       </c>
       <c r="B317" s="5"/>
       <c r="C317" s="4"/>
     </row>
     <row r="318" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="3">
-        <v>45608</v>
+        <v>45243</v>
       </c>
       <c r="B318" s="5"/>
       <c r="C318" s="4"/>
     </row>
     <row r="319" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="3">
-        <v>45609</v>
+        <v>45244</v>
       </c>
       <c r="B319" s="5"/>
       <c r="C319" s="4"/>
     </row>
     <row r="320" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="3">
-        <v>45610</v>
+        <v>45245</v>
       </c>
       <c r="B320" s="5"/>
       <c r="C320" s="4"/>
     </row>
     <row r="321" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="3">
-        <v>45611</v>
+        <v>45246</v>
       </c>
       <c r="B321" s="5"/>
       <c r="C321" s="4"/>
     </row>
     <row r="322" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="3">
-        <v>45612</v>
+        <v>45247</v>
       </c>
       <c r="B322" s="5"/>
       <c r="C322" s="4"/>
     </row>
     <row r="323" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="3">
-        <v>45613</v>
+        <v>45248</v>
       </c>
       <c r="B323" s="5"/>
       <c r="C323" s="4"/>
     </row>
     <row r="324" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="3">
-        <v>45614</v>
+        <v>45249</v>
       </c>
       <c r="B324" s="5"/>
       <c r="C324" s="4"/>
     </row>
     <row r="325" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="3">
-        <v>45615</v>
+        <v>45250</v>
       </c>
       <c r="B325" s="5"/>
       <c r="C325" s="4"/>
     </row>
     <row r="326" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="3">
-        <v>45616</v>
+        <v>45251</v>
       </c>
       <c r="B326" s="5"/>
       <c r="C326" s="4"/>
     </row>
     <row r="327" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="3">
-        <v>45617</v>
+        <v>45252</v>
       </c>
       <c r="B327" s="5"/>
       <c r="C327" s="4"/>
     </row>
     <row r="328" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="3">
-        <v>45618</v>
+        <v>45253</v>
       </c>
       <c r="B328" s="5"/>
       <c r="C328" s="4"/>
     </row>
     <row r="329" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="3">
-        <v>45619</v>
+        <v>45254</v>
       </c>
       <c r="B329" s="5"/>
       <c r="C329" s="4"/>
     </row>
     <row r="330" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="3">
-        <v>45620</v>
+        <v>45255</v>
       </c>
       <c r="B330" s="5"/>
       <c r="C330" s="4"/>
     </row>
     <row r="331" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="3">
-        <v>45621</v>
+        <v>45256</v>
       </c>
       <c r="B331" s="5"/>
       <c r="C331" s="4"/>
     </row>
     <row r="332" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="3">
-        <v>45622</v>
+        <v>45257</v>
       </c>
       <c r="B332" s="5"/>
       <c r="C332" s="4"/>
     </row>
     <row r="333" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="3">
-        <v>45623</v>
+        <v>45258</v>
       </c>
       <c r="B333" s="5"/>
       <c r="C333" s="4"/>
     </row>
     <row r="334" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="3">
-        <v>45624</v>
+        <v>45259</v>
       </c>
       <c r="B334" s="5"/>
       <c r="C334" s="4"/>
     </row>
     <row r="335" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="3">
-        <v>45625</v>
+        <v>45260</v>
       </c>
       <c r="B335" s="5"/>
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="3">
-        <v>45626</v>
+        <v>45261</v>
       </c>
       <c r="B336" s="5"/>
       <c r="C336" s="4"/>
     </row>
     <row r="337" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="3">
-        <v>45627</v>
+        <v>45262</v>
       </c>
       <c r="B337" s="5"/>
       <c r="C337" s="4"/>
     </row>
     <row r="338" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="3">
-        <v>45628</v>
+        <v>45263</v>
       </c>
       <c r="B338" s="5"/>
       <c r="C338" s="4"/>
     </row>
     <row r="339" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="3">
-        <v>45629</v>
+        <v>45264</v>
       </c>
       <c r="B339" s="5"/>
       <c r="C339" s="4"/>
     </row>
     <row r="340" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="3">
-        <v>45630</v>
+        <v>45265</v>
       </c>
       <c r="B340" s="5"/>
       <c r="C340" s="4"/>
     </row>
     <row r="341" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="3">
-        <v>45631</v>
+        <v>45266</v>
       </c>
       <c r="B341" s="5"/>
       <c r="C341" s="4"/>
     </row>
     <row r="342" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="3">
-        <v>45632</v>
+        <v>45267</v>
       </c>
       <c r="B342" s="5"/>
       <c r="C342" s="4"/>
     </row>
     <row r="343" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="3">
-        <v>45633</v>
+        <v>45268</v>
       </c>
       <c r="B343" s="5"/>
       <c r="C343" s="4"/>
     </row>
     <row r="344" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="3">
-        <v>45634</v>
+        <v>45269</v>
       </c>
       <c r="B344" s="5"/>
       <c r="C344" s="4"/>
     </row>
     <row r="345" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="3">
-        <v>45635</v>
+        <v>45270</v>
       </c>
       <c r="B345" s="5"/>
       <c r="C345" s="4"/>
     </row>
     <row r="346" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="3">
-        <v>45636</v>
+        <v>45271</v>
       </c>
       <c r="B346" s="5"/>
       <c r="C346" s="4"/>
     </row>
     <row r="347" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="3">
-        <v>45637</v>
+        <v>45272</v>
       </c>
       <c r="B347" s="5"/>
       <c r="C347" s="4"/>
     </row>
     <row r="348" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="3">
-        <v>45638</v>
+        <v>45273</v>
       </c>
       <c r="B348" s="5"/>
       <c r="C348" s="4"/>
     </row>
     <row r="349" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="3">
-        <v>45639</v>
+        <v>45274</v>
       </c>
       <c r="B349" s="5"/>
       <c r="C349" s="4"/>
     </row>
     <row r="350" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="3">
-        <v>45640</v>
+        <v>45275</v>
       </c>
       <c r="B350" s="5"/>
       <c r="C350" s="4"/>
     </row>
     <row r="351" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="3">
-        <v>45641</v>
+        <v>45276</v>
       </c>
       <c r="B351" s="5"/>
       <c r="C351" s="4"/>
     </row>
     <row r="352" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="3">
-        <v>45642</v>
+        <v>45277</v>
       </c>
       <c r="B352" s="5"/>
       <c r="C352" s="4"/>
     </row>
     <row r="353" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="3">
-        <v>45643</v>
+        <v>45278</v>
       </c>
       <c r="B353" s="5"/>
       <c r="C353" s="4"/>
     </row>
     <row r="354" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="3">
-        <v>45644</v>
+        <v>45279</v>
       </c>
       <c r="B354" s="5"/>
       <c r="C354" s="4"/>
     </row>
     <row r="355" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="3">
-        <v>45645</v>
+        <v>45280</v>
       </c>
       <c r="B355" s="5"/>
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="3">
-        <v>45646</v>
+        <v>45281</v>
       </c>
       <c r="B356" s="5"/>
       <c r="C356" s="4"/>
     </row>
     <row r="357" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="3">
-        <v>45647</v>
+        <v>45282</v>
       </c>
       <c r="B357" s="5"/>
       <c r="C357" s="4"/>
     </row>
     <row r="358" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="3">
-        <v>45648</v>
-      </c>
-      <c r="B358" s="5"/>
-      <c r="C358" s="4"/>
+        <v>45283</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C358" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="359" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="3">
-        <v>45649</v>
-      </c>
-      <c r="B359" s="5"/>
+        <v>45284</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C359" s="4"/>
     </row>
     <row r="360" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="3">
-        <v>45650</v>
-      </c>
-      <c r="B360" s="5"/>
-      <c r="C360" s="4"/>
+        <v>45285</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="361" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="3">
-        <v>45651</v>
-      </c>
-      <c r="B361" s="5"/>
+        <v>45286</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C361" s="4"/>
     </row>
     <row r="362" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="3">
-        <v>45652</v>
-      </c>
-      <c r="B362" s="5"/>
+        <v>45287</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C362" s="4"/>
     </row>
     <row r="363" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="3">
-        <v>45653</v>
+        <v>45288</v>
       </c>
       <c r="B363" s="5"/>
       <c r="C363" s="4"/>
     </row>
     <row r="364" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="3">
-        <v>45654</v>
+        <v>45289</v>
       </c>
       <c r="B364" s="5"/>
       <c r="C364" s="4"/>
     </row>
     <row r="365" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="3">
-        <v>45655</v>
+        <v>45290</v>
       </c>
       <c r="B365" s="5"/>
       <c r="C365" s="4"/>
     </row>
     <row r="366" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="3">
-        <v>45656</v>
+        <v>45291</v>
       </c>
       <c r="B366" s="5"/>
       <c r="C366" s="4"/>
     </row>
     <row r="367" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="3">
-        <v>45657</v>
+        <v>45292</v>
       </c>
       <c r="B367" s="5"/>
       <c r="C367" s="4"/>
@@ -5010,8 +10242,8 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{B362811B-75DD-F64E-8759-19C18BB86899}">
-      <formula1>"Иванов Иван Иванович,Петров Петр Петрович,--"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B367" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"Хрипунова Инна Сергеевна,Мельничук Валерия Владимировна,--"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
